--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802613B4-88ED-4FBF-A56E-6042FF15C6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BFC657-A09F-4EF5-9AD1-C14362668384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -482,9 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A4F608-CA96-4AFD-BC88-2CD8B375A5FD}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -542,19 +540,19 @@
         <v>2022</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -596,9 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BFC657-A09F-4EF5-9AD1-C14362668384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B141EC-718E-4BF5-8865-13461695B7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
     <sheet name="SevenDaysRewardTable" sheetId="2" r:id="rId2"/>
     <sheet name="SevenSumTable" sheetId="3" r:id="rId3"/>
+    <sheet name="FestivalTypeTable" sheetId="4" r:id="rId4"/>
+    <sheet name="FestivalCollectTable" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="37">
   <si>
     <t>groupId|Int</t>
   </si>
@@ -117,6 +119,36 @@
   </si>
   <si>
     <t>count|Int</t>
+  </si>
+  <si>
+    <t>collectGivenTime|Int</t>
+  </si>
+  <si>
+    <t>exchangeGivenTime|Int</t>
+  </si>
+  <si>
+    <t>festivalPoint|Int</t>
+  </si>
+  <si>
+    <t>QuestDesc_14</t>
+  </si>
+  <si>
+    <t>QuestDesc_20</t>
+  </si>
+  <si>
+    <t>QuestDesc_16</t>
+  </si>
+  <si>
+    <t>iconAddress|String</t>
+  </si>
+  <si>
+    <t>Shot_HeavyAxe</t>
+  </si>
+  <si>
+    <t>Shot_HeavyMace</t>
+  </si>
+  <si>
+    <t>Shot_HeavyHammer</t>
   </si>
 </sst>
 </file>
@@ -482,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A4F608-CA96-4AFD-BC88-2CD8B375A5FD}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5956,4 +5988,619 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A90C97E-132D-4750-ABEC-292E39282DC0}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>1036800</v>
+      </c>
+      <c r="D2">
+        <v>1209600</v>
+      </c>
+      <c r="E2">
+        <v>1296000</v>
+      </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>2023</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>1036800</v>
+      </c>
+      <c r="D3">
+        <v>1209600</v>
+      </c>
+      <c r="E3">
+        <v>1296000</v>
+      </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>2022</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>1036800</v>
+      </c>
+      <c r="D4">
+        <v>1209600</v>
+      </c>
+      <c r="E4">
+        <v>1296000</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>2022</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BAFCC6-D21D-4D9A-8592-5C5DA7F81395}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+      <c r="H3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>75</v>
+      </c>
+      <c r="H6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+      <c r="H7">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>200</v>
+      </c>
+      <c r="H8">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>120</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>150</v>
+      </c>
+      <c r="H13">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>300</v>
+      </c>
+      <c r="H15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>75</v>
+      </c>
+      <c r="H18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>150</v>
+      </c>
+      <c r="H19">
+        <v>505</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B141EC-718E-4BF5-8865-13461695B7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B6942B-FB7E-4475-8C00-8703B9AE7AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="41">
   <si>
     <t>groupId|Int</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>Shot_HeavyHammer</t>
+  </si>
+  <si>
+    <t>QuestDesc_17</t>
+  </si>
+  <si>
+    <t>QuestDesc_18</t>
+  </si>
+  <si>
+    <t>QuestDesc_19</t>
+  </si>
+  <si>
+    <t>QuestDesc_12_2</t>
   </si>
 </sst>
 </file>
@@ -626,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -717,10 +729,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -752,10 +764,10 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -787,10 +799,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -857,10 +869,10 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2327,10 +2339,10 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2362,10 +2374,10 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2432,10 +2444,10 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -2467,10 +2479,10 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2502,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -2537,10 +2549,10 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -2607,10 +2619,10 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -2642,10 +2654,10 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -2677,10 +2689,10 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -2712,10 +2724,10 @@
         <v>7</v>
       </c>
       <c r="D60">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -2747,10 +2759,10 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -2782,10 +2794,10 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F62">
         <v>3</v>
@@ -2817,10 +2829,10 @@
         <v>3</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -2852,10 +2864,10 @@
         <v>4</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -2887,10 +2899,10 @@
         <v>5</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -2922,10 +2934,10 @@
         <v>6</v>
       </c>
       <c r="D66">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F66">
         <v>3</v>
@@ -5994,7 +6006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A90C97E-132D-4750-ABEC-292E39282DC0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B6942B-FB7E-4475-8C00-8703B9AE7AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFA9904-E0D4-470A-8A01-B27B0EFDE981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SevenSumTable" sheetId="3" r:id="rId3"/>
     <sheet name="FestivalTypeTable" sheetId="4" r:id="rId4"/>
     <sheet name="FestivalCollectTable" sheetId="5" r:id="rId5"/>
+    <sheet name="FestivalExchangeTable" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="48">
   <si>
     <t>groupId|Int</t>
   </si>
@@ -161,6 +162,27 @@
   </si>
   <si>
     <t>QuestDesc_12_2</t>
+  </si>
+  <si>
+    <t>exchangeTimes|Int</t>
+  </si>
+  <si>
+    <t>neededCount|Int</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>Spell_0001</t>
+  </si>
+  <si>
+    <t>Actor0037</t>
+  </si>
+  <si>
+    <t>Equip0001</t>
+  </si>
+  <si>
+    <t>Pet_0001</t>
   </si>
 </sst>
 </file>
@@ -638,7 +660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6615,4 +6637,646 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB413D-F0B5-4DF8-BB61-465D9B0D6AD8}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="4.25" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>661</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3">
+        <v>514</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <v>595</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>439</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>165</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>434</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>891</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>438</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>300</v>
+      </c>
+      <c r="E11">
+        <v>781</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12">
+        <v>556</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>878</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>700</v>
+      </c>
+      <c r="E14">
+        <v>605</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1200</v>
+      </c>
+      <c r="E15">
+        <v>525</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1500</v>
+      </c>
+      <c r="E16">
+        <v>534</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>694</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18">
+        <v>626</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>300</v>
+      </c>
+      <c r="E19">
+        <v>868</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>400</v>
+      </c>
+      <c r="E20">
+        <v>836</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>500</v>
+      </c>
+      <c r="E21">
+        <v>292</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>700</v>
+      </c>
+      <c r="E22">
+        <v>255</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>1200</v>
+      </c>
+      <c r="E23">
+        <v>133</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>1500</v>
+      </c>
+      <c r="E24">
+        <v>762</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFA9904-E0D4-470A-8A01-B27B0EFDE981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF0752-B124-417A-8F28-B1D7119A14A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="51">
   <si>
     <t>groupId|Int</t>
   </si>
@@ -176,13 +176,22 @@
     <t>Spell_0001</t>
   </si>
   <si>
-    <t>Actor0037</t>
-  </si>
-  <si>
     <t>Equip0001</t>
   </si>
   <si>
     <t>Pet_0001</t>
+  </si>
+  <si>
+    <t>Pet_0024</t>
+  </si>
+  <si>
+    <t>Spell_0003</t>
+  </si>
+  <si>
+    <t>Pet_0002</t>
+  </si>
+  <si>
+    <t>Equip0101</t>
   </si>
 </sst>
 </file>
@@ -660,7 +669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -731,13 +742,13 @@
         <v>653</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="L2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -766,13 +777,13 @@
         <v>277</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -801,13 +812,13 @@
         <v>387</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -836,13 +847,13 @@
         <v>728</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2376,13 +2387,13 @@
         <v>144</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2411,13 +2422,13 @@
         <v>563</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K50" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="L50">
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2446,13 +2457,13 @@
         <v>906</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K51" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2481,13 +2492,13 @@
         <v>656</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K52" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="L52">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -4021,13 +4032,13 @@
         <v>235</v>
       </c>
       <c r="J96" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K96" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L96">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4056,13 +4067,13 @@
         <v>370</v>
       </c>
       <c r="J97" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K97" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="L97">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4091,13 +4102,13 @@
         <v>593</v>
       </c>
       <c r="J98" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K98" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="L98">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4126,13 +4137,13 @@
         <v>223</v>
       </c>
       <c r="J99" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K99" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="L99">
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -5510,7 +5521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F5A8A-CC2C-4E3D-998F-03E9F0CD83AA}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5589,13 +5602,13 @@
         <v>557</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5649,13 +5662,13 @@
         <v>672</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F7">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5689,13 +5702,13 @@
         <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5749,13 +5762,13 @@
         <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5775,7 +5788,7 @@
         <v>25</v>
       </c>
       <c r="F13">
-        <v>2200</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5809,13 +5822,13 @@
         <v>560</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F15">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5849,13 +5862,13 @@
         <v>775</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -5909,13 +5922,13 @@
         <v>380</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5935,7 +5948,7 @@
         <v>25</v>
       </c>
       <c r="F21">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5969,13 +5982,13 @@
         <v>976</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F23">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -6009,13 +6022,13 @@
         <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F25">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6643,7 +6656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB413D-F0B5-4DF8-BB61-465D9B0D6AD8}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6723,7 +6736,7 @@
         <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -6749,7 +6762,7 @@
         <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -6775,7 +6788,7 @@
         <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -6876,13 +6889,13 @@
         <v>891</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -6902,13 +6915,13 @@
         <v>438</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H10">
-        <v>1900</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -6928,13 +6941,13 @@
         <v>781</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -6954,13 +6967,13 @@
         <v>556</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H12">
-        <v>2200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -7084,13 +7097,13 @@
         <v>694</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -7110,13 +7123,13 @@
         <v>626</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H18">
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -7136,13 +7149,13 @@
         <v>868</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -7162,13 +7175,13 @@
         <v>836</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H20">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FF0752-B124-417A-8F28-B1D7119A14A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D58421-C8B6-4B48-9A1F-54F804E330AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -557,7 +557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A4F608-CA96-4AFD-BC88-2CD8B375A5FD}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -609,7 +611,7 @@
         <v>604800</v>
       </c>
       <c r="C3">
-        <v>1296000</v>
+        <v>691200</v>
       </c>
       <c r="D3">
         <v>2022</v>
@@ -624,7 +626,7 @@
         <v>2023</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -669,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6041,9 +6043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A90C97E-132D-4750-ABEC-292E39282DC0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6114,7 +6114,7 @@
         <v>2023</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>8</v>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D58421-C8B6-4B48-9A1F-54F804E330AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8906C4A9-3203-4FD9-96F5-369007C4CF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="56">
   <si>
     <t>groupId|Int</t>
   </si>
@@ -192,6 +192,21 @@
   </si>
   <si>
     <t>Equip0101</t>
+  </si>
+  <si>
+    <t>QuestDesc_21</t>
+  </si>
+  <si>
+    <t>QuestDesc_22</t>
+  </si>
+  <si>
+    <t>QuestDesc_23</t>
+  </si>
+  <si>
+    <t>QuestDesc_24</t>
+  </si>
+  <si>
+    <t>QuestDesc_25</t>
   </si>
 </sst>
 </file>
@@ -557,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A4F608-CA96-4AFD-BC88-2CD8B375A5FD}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,9 +686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -764,10 +777,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -799,13 +812,13 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -834,13 +847,13 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -869,10 +882,10 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -904,13 +917,13 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -939,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -974,10 +987,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1009,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>2</v>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8906C4A9-3203-4FD9-96F5-369007C4CF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C75C9E-4E45-4CD7-9901-2B388ED59DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="59">
   <si>
     <t>groupId|Int</t>
   </si>
@@ -161,9 +161,6 @@
     <t>QuestDesc_19</t>
   </si>
   <si>
-    <t>QuestDesc_12_2</t>
-  </si>
-  <si>
     <t>exchangeTimes|Int</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>Spell_0001</t>
   </si>
   <si>
-    <t>Equip0001</t>
-  </si>
-  <si>
     <t>Pet_0001</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
   </si>
   <si>
     <t>Pet_0002</t>
-  </si>
-  <si>
-    <t>Equip0101</t>
   </si>
   <si>
     <t>QuestDesc_21</t>
@@ -207,6 +198,24 @@
   </si>
   <si>
     <t>QuestDesc_25</t>
+  </si>
+  <si>
+    <t>Equip020001</t>
+  </si>
+  <si>
+    <t>Equip010001</t>
+  </si>
+  <si>
+    <t>Equip010101</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Equip020101</t>
+  </si>
+  <si>
+    <t>Equip000101</t>
   </si>
 </sst>
 </file>
@@ -686,11 +695,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -757,10 +767,10 @@
         <v>653</v>
       </c>
       <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -780,7 +790,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -792,10 +802,10 @@
         <v>277</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -815,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -827,10 +837,10 @@
         <v>387</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -850,7 +860,7 @@
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -862,10 +872,10 @@
         <v>728</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -885,7 +895,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -920,7 +930,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -2402,10 +2412,10 @@
         <v>144</v>
       </c>
       <c r="J49" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49" t="s">
         <v>43</v>
-      </c>
-      <c r="K49" t="s">
-        <v>44</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -2437,10 +2447,10 @@
         <v>563</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -2472,10 +2482,10 @@
         <v>906</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -2507,10 +2517,10 @@
         <v>656</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -2667,10 +2677,10 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -4047,10 +4057,10 @@
         <v>235</v>
       </c>
       <c r="J96" t="s">
+        <v>42</v>
+      </c>
+      <c r="K96" t="s">
         <v>43</v>
-      </c>
-      <c r="K96" t="s">
-        <v>44</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -4082,10 +4092,10 @@
         <v>370</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -4117,10 +4127,10 @@
         <v>593</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K98" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -4152,10 +4162,10 @@
         <v>223</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -5536,14 +5546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F5A8A-CC2C-4E3D-998F-03E9F0CD83AA}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="4" width="4.25" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5617,10 +5624,10 @@
         <v>557</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5677,10 +5684,10 @@
         <v>672</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -5717,10 +5724,10 @@
         <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5777,10 +5784,10 @@
         <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -5837,10 +5844,10 @@
         <v>560</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -5877,10 +5884,10 @@
         <v>775</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -5937,10 +5944,10 @@
         <v>380</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5997,10 +6004,10 @@
         <v>976</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -6037,10 +6044,10 @@
         <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -6214,10 +6221,13 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6669,7 +6679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB413D-F0B5-4DF8-BB61-465D9B0D6AD8}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6685,10 +6697,10 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -6720,10 +6732,10 @@
         <v>661</v>
       </c>
       <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -6746,10 +6758,10 @@
         <v>514</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -6772,10 +6784,10 @@
         <v>595</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -6798,10 +6810,10 @@
         <v>439</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -6902,10 +6914,10 @@
         <v>891</v>
       </c>
       <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -6928,10 +6940,10 @@
         <v>438</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -6954,10 +6966,10 @@
         <v>781</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -6980,10 +6992,10 @@
         <v>556</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -7110,10 +7122,10 @@
         <v>694</v>
       </c>
       <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
         <v>43</v>
-      </c>
-      <c r="G17" t="s">
-        <v>44</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -7136,10 +7148,10 @@
         <v>626</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -7162,10 +7174,10 @@
         <v>868</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -7188,10 +7200,10 @@
         <v>836</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H20">
         <v>1</v>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C75C9E-4E45-4CD7-9901-2B388ED59DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA54B70-2AD0-485C-A99B-7F878A33EC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -209,13 +209,13 @@
     <t>Equip010101</t>
   </si>
   <si>
-    <t>Axe</t>
-  </si>
-  <si>
     <t>Equip020101</t>
   </si>
   <si>
     <t>Equip000101</t>
+  </si>
+  <si>
+    <t>Equip030101</t>
   </si>
 </sst>
 </file>
@@ -5546,7 +5546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F5A8A-CC2C-4E3D-998F-03E9F0CD83AA}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5887,7 +5889,7 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -6047,7 +6049,7 @@
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -6679,7 +6681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB413D-F0B5-4DF8-BB61-465D9B0D6AD8}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6969,7 +6971,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -7177,7 +7179,7 @@
         <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19">
         <v>1</v>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA54B70-2AD0-485C-A99B-7F878A33EC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5FFBC8-B25F-4F0C-B396-88E4A97B6D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -581,9 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A4F608-CA96-4AFD-BC88-2CD8B375A5FD}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -650,7 +648,7 @@
         <v>2023</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>6</v>
@@ -5546,7 +5544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F5A8A-CC2C-4E3D-998F-03E9F0CD83AA}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6065,7 +6063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A90C97E-132D-4750-ABEC-292E39282DC0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6136,7 +6134,7 @@
         <v>2023</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <v>8</v>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5FFBC8-B25F-4F0C-B396-88E4A97B6D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA2963-15D7-4E3E-A531-1269E0D1EC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="65">
   <si>
     <t>groupId|Int</t>
   </si>
@@ -197,16 +197,10 @@
     <t>QuestDesc_24</t>
   </si>
   <si>
-    <t>QuestDesc_25</t>
-  </si>
-  <si>
     <t>Equip020001</t>
   </si>
   <si>
     <t>Equip010001</t>
-  </si>
-  <si>
-    <t>Equip010101</t>
   </si>
   <si>
     <t>Equip020101</t>
@@ -216,6 +210,30 @@
   </si>
   <si>
     <t>Equip030101</t>
+  </si>
+  <si>
+    <t>QuestDesc_12</t>
+  </si>
+  <si>
+    <t>QuestDesc_13</t>
+  </si>
+  <si>
+    <t>QuestDesc_30</t>
+  </si>
+  <si>
+    <t>QuestDesc_26</t>
+  </si>
+  <si>
+    <t>QuestDesc_27</t>
+  </si>
+  <si>
+    <t>QuestDesc_29</t>
+  </si>
+  <si>
+    <t>QuestDesc_28</t>
+  </si>
+  <si>
+    <t>Equip031001</t>
   </si>
 </sst>
 </file>
@@ -693,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -750,13 +768,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -785,13 +803,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -820,13 +838,13 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -838,7 +856,7 @@
         <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -855,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -925,13 +943,13 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -960,13 +978,13 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -995,13 +1013,13 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -1030,13 +1048,13 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -1065,10 +1083,10 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1100,13 +1118,13 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1135,10 +1153,10 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,13 +1188,13 @@
         <v>7</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1205,13 +1223,13 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -1240,13 +1258,13 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -1275,13 +1293,13 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -1310,13 +1328,13 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>10</v>
@@ -1351,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>10</v>
@@ -1380,10 +1398,10 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1415,13 +1433,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -1450,13 +1468,13 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1485,13 +1503,13 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H23">
         <v>10</v>
@@ -1520,13 +1538,13 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -1555,13 +1573,13 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <v>10</v>
@@ -1590,13 +1608,13 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="H26">
         <v>10</v>
@@ -1625,10 +1643,10 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -1660,13 +1678,13 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="H28">
         <v>10</v>
@@ -1695,13 +1713,13 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -1730,13 +1748,13 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H30">
         <v>10</v>
@@ -1765,13 +1783,13 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H31">
         <v>10</v>
@@ -1800,13 +1818,13 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>10</v>
@@ -1835,13 +1853,13 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H33">
         <v>10</v>
@@ -1870,13 +1888,13 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="H34">
         <v>10</v>
@@ -1905,13 +1923,13 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="H35">
         <v>10</v>
@@ -1940,13 +1958,13 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>2000</v>
       </c>
       <c r="H36">
         <v>10</v>
@@ -1975,10 +1993,10 @@
         <v>4</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -2010,13 +2028,13 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <v>10</v>
@@ -2045,13 +2063,13 @@
         <v>6</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H39">
         <v>10</v>
@@ -2080,13 +2098,13 @@
         <v>7</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>10</v>
@@ -2115,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="H41">
         <v>10</v>
@@ -2150,13 +2168,13 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H42">
         <v>10</v>
@@ -2185,13 +2203,13 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H43">
         <v>10</v>
@@ -2220,13 +2238,13 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H44">
         <v>10</v>
@@ -2255,13 +2273,13 @@
         <v>5</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="H45">
         <v>10</v>
@@ -2290,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F46">
         <v>7</v>
@@ -2325,13 +2343,13 @@
         <v>7</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H47">
         <v>10</v>
@@ -2360,13 +2378,13 @@
         <v>8</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H48">
         <v>10</v>
@@ -2483,7 +2501,7 @@
         <v>42</v>
       </c>
       <c r="K51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -4128,7 +4146,7 @@
         <v>42</v>
       </c>
       <c r="K98" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -5727,7 +5745,7 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5887,7 +5905,7 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -6047,7 +6065,7 @@
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -6063,7 +6081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A90C97E-132D-4750-ABEC-292E39282DC0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6787,7 +6805,7 @@
         <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -6969,7 +6987,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -7177,7 +7195,7 @@
         <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H19">
         <v>1</v>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AA2963-15D7-4E3E-A531-1269E0D1EC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03292223-8B72-4CF6-9598-25E8731DAC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="64">
   <si>
     <t>groupId|Int</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>EN</t>
-  </si>
-  <si>
-    <t>QuestDesc_2</t>
   </si>
   <si>
     <t>GO</t>
@@ -637,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>604800</v>
+        <v>864000</v>
       </c>
       <c r="C2">
-        <v>864000</v>
+        <v>1209600</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -648,28 +645,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>604800</v>
+        <v>864000</v>
       </c>
       <c r="C3">
-        <v>691200</v>
+        <v>1209600</v>
       </c>
       <c r="D3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2023</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -677,28 +674,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>604800</v>
+        <v>864000</v>
       </c>
       <c r="C4">
-        <v>2592000</v>
+        <v>1209600</v>
       </c>
       <c r="D4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -709,9 +706,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -771,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -783,10 +782,10 @@
         <v>653</v>
       </c>
       <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -806,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -818,10 +817,10 @@
         <v>277</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -841,7 +840,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -853,10 +852,10 @@
         <v>387</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -876,7 +875,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -888,10 +887,10 @@
         <v>728</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -911,7 +910,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -946,7 +945,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -981,7 +980,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>40</v>
@@ -1016,7 +1015,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <v>40</v>
@@ -1051,7 +1050,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1086,7 +1085,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1121,7 +1120,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <v>30</v>
@@ -1156,7 +1155,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1191,7 +1190,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1226,7 +1225,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -1261,7 +1260,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -1296,7 +1295,7 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1331,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1401,7 +1400,7 @@
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1436,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>60</v>
@@ -1471,7 +1470,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22">
         <v>60</v>
@@ -1506,7 +1505,7 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -1541,7 +1540,7 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24">
         <v>60</v>
@@ -1576,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -1611,7 +1610,7 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26">
         <v>1000</v>
@@ -1646,7 +1645,7 @@
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -1681,7 +1680,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28">
         <v>70</v>
@@ -1716,10 +1715,10 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -1751,7 +1750,7 @@
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -1786,7 +1785,7 @@
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -1821,7 +1820,7 @@
         <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32">
         <v>30</v>
@@ -1856,7 +1855,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -1891,7 +1890,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34">
         <v>80</v>
@@ -1926,7 +1925,7 @@
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35">
         <v>80</v>
@@ -1961,7 +1960,7 @@
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36">
         <v>2000</v>
@@ -1996,7 +1995,7 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -2031,7 +2030,7 @@
         <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -2066,7 +2065,7 @@
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39">
         <v>20</v>
@@ -2101,7 +2100,7 @@
         <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -2136,7 +2135,7 @@
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41">
         <v>100</v>
@@ -2171,7 +2170,7 @@
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -2206,7 +2205,7 @@
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -2241,7 +2240,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44">
         <v>12</v>
@@ -2276,7 +2275,7 @@
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45">
         <v>120</v>
@@ -2311,7 +2310,7 @@
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46">
         <v>7</v>
@@ -2346,7 +2345,7 @@
         <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47">
         <v>15</v>
@@ -2381,10 +2380,10 @@
         <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F48">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H48">
         <v>10</v>
@@ -2413,13 +2412,13 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>10</v>
@@ -2428,10 +2427,10 @@
         <v>144</v>
       </c>
       <c r="J49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" t="s">
         <v>42</v>
-      </c>
-      <c r="K49" t="s">
-        <v>43</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -2448,10 +2447,10 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2463,10 +2462,10 @@
         <v>563</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -2483,10 +2482,10 @@
         <v>3</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2498,10 +2497,10 @@
         <v>906</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -2518,13 +2517,13 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>10</v>
@@ -2533,10 +2532,10 @@
         <v>656</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -2553,13 +2552,13 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H53">
         <v>10</v>
@@ -2582,34 +2581,34 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>10</v>
       </c>
       <c r="I54">
-        <v>654</v>
+        <v>841</v>
       </c>
       <c r="J54" t="s">
         <v>22</v>
       </c>
       <c r="K54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L54">
-        <v>2500</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2620,31 +2619,31 @@
         <v>2</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H55">
         <v>10</v>
       </c>
       <c r="I55">
-        <v>549</v>
+        <v>654</v>
       </c>
       <c r="J55" t="s">
         <v>22</v>
       </c>
       <c r="K55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L55">
-        <v>100</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2655,13 +2654,13 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -2670,16 +2669,16 @@
         <v>10</v>
       </c>
       <c r="I56">
-        <v>815</v>
+        <v>549</v>
       </c>
       <c r="J56" t="s">
         <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L56">
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2690,31 +2689,31 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57">
+        <v>815</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
         <v>24</v>
       </c>
-      <c r="F57">
-        <v>3</v>
-      </c>
-      <c r="H57">
-        <v>10</v>
-      </c>
-      <c r="I57">
-        <v>265</v>
-      </c>
-      <c r="J57" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" t="s">
-        <v>25</v>
-      </c>
       <c r="L57">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2725,31 +2724,31 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>10</v>
       </c>
       <c r="I58">
-        <v>495</v>
+        <v>265</v>
       </c>
       <c r="J58" t="s">
         <v>22</v>
       </c>
       <c r="K58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L58">
-        <v>2500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2760,31 +2759,31 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
       <c r="I59">
-        <v>757</v>
+        <v>495</v>
       </c>
       <c r="J59" t="s">
         <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2795,31 +2794,31 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>10</v>
       </c>
       <c r="I60">
-        <v>660</v>
+        <v>757</v>
       </c>
       <c r="J60" t="s">
         <v>22</v>
       </c>
       <c r="K60" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60">
         <v>25</v>
-      </c>
-      <c r="L60">
-        <v>2000</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2827,34 +2826,34 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>10</v>
       </c>
       <c r="I61">
-        <v>852</v>
+        <v>660</v>
       </c>
       <c r="J61" t="s">
         <v>22</v>
       </c>
       <c r="K61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L61">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2865,31 +2864,31 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H62">
         <v>10</v>
       </c>
       <c r="I62">
-        <v>641</v>
+        <v>852</v>
       </c>
       <c r="J62" t="s">
         <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L62">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -2900,13 +2899,13 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F63">
         <v>3</v>
@@ -2915,16 +2914,16 @@
         <v>10</v>
       </c>
       <c r="I63">
-        <v>908</v>
+        <v>641</v>
       </c>
       <c r="J63" t="s">
         <v>22</v>
       </c>
       <c r="K63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L63">
-        <v>20</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -2935,31 +2934,31 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>10</v>
       </c>
       <c r="I64">
-        <v>422</v>
+        <v>908</v>
       </c>
       <c r="J64" t="s">
         <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L64">
-        <v>2500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2970,31 +2969,31 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65">
         <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>900</v>
       </c>
       <c r="H65">
         <v>10</v>
       </c>
       <c r="I65">
-        <v>774</v>
+        <v>422</v>
       </c>
       <c r="J65" t="s">
         <v>22</v>
       </c>
       <c r="K65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L65">
-        <v>4500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3005,31 +3004,31 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66">
         <v>10</v>
       </c>
       <c r="I66">
-        <v>188</v>
+        <v>774</v>
       </c>
       <c r="J66" t="s">
         <v>22</v>
       </c>
       <c r="K66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L66">
-        <v>2000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3037,16 +3036,16 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F67">
         <v>4</v>
@@ -3055,16 +3054,16 @@
         <v>10</v>
       </c>
       <c r="I67">
-        <v>958</v>
+        <v>188</v>
       </c>
       <c r="J67" t="s">
         <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L67">
-        <v>50</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3075,7 +3074,7 @@
         <v>4</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>11</v>
@@ -3084,22 +3083,22 @@
         <v>21</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H68">
         <v>10</v>
       </c>
       <c r="I68">
-        <v>667</v>
+        <v>958</v>
       </c>
       <c r="J68" t="s">
         <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L68">
-        <v>2500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3110,13 +3109,13 @@
         <v>4</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F69">
         <v>4</v>
@@ -3125,16 +3124,16 @@
         <v>10</v>
       </c>
       <c r="I69">
-        <v>615</v>
+        <v>667</v>
       </c>
       <c r="J69" t="s">
         <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L69">
-        <v>3000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3145,31 +3144,31 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H70">
         <v>10</v>
       </c>
       <c r="I70">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="J70" t="s">
         <v>22</v>
       </c>
       <c r="K70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3180,31 +3179,31 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <v>10</v>
       </c>
       <c r="I71">
-        <v>200</v>
+        <v>552</v>
       </c>
       <c r="J71" t="s">
         <v>22</v>
       </c>
       <c r="K71" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L71">
-        <v>1500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3215,31 +3214,31 @@
         <v>4</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <v>10</v>
       </c>
       <c r="I72">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J72" t="s">
         <v>22</v>
       </c>
       <c r="K72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3250,31 +3249,31 @@
         <v>4</v>
       </c>
       <c r="C73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="H73">
         <v>10</v>
       </c>
       <c r="I73">
-        <v>769</v>
+        <v>178</v>
       </c>
       <c r="J73" t="s">
         <v>22</v>
       </c>
       <c r="K73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73">
         <v>25</v>
-      </c>
-      <c r="L73">
-        <v>2000</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3285,31 +3284,31 @@
         <v>4</v>
       </c>
       <c r="C74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H74">
         <v>10</v>
       </c>
       <c r="I74">
-        <v>549</v>
+        <v>769</v>
       </c>
       <c r="J74" t="s">
         <v>22</v>
       </c>
       <c r="K74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L74">
-        <v>30</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3329,7 +3328,7 @@
         <v>21</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H75">
         <v>10</v>
@@ -3341,7 +3340,7 @@
         <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L75">
         <v>2500</v>
@@ -3358,13 +3357,13 @@
         <v>2</v>
       </c>
       <c r="D76">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H76">
         <v>10</v>
@@ -3393,13 +3392,13 @@
         <v>3</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H77">
         <v>10</v>
@@ -3411,7 +3410,7 @@
         <v>22</v>
       </c>
       <c r="K77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L77">
         <v>2000</v>
@@ -3428,13 +3427,13 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>1500</v>
       </c>
       <c r="H78">
         <v>10</v>
@@ -3446,7 +3445,7 @@
         <v>22</v>
       </c>
       <c r="K78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L78">
         <v>1500</v>
@@ -3463,13 +3462,13 @@
         <v>5</v>
       </c>
       <c r="D79">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="H79">
         <v>10</v>
@@ -3481,7 +3480,7 @@
         <v>22</v>
       </c>
       <c r="K79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L79">
         <v>2500</v>
@@ -3498,13 +3497,13 @@
         <v>6</v>
       </c>
       <c r="D80">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H80">
         <v>10</v>
@@ -3539,7 +3538,7 @@
         <v>21</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H81">
         <v>10</v>
@@ -3551,7 +3550,7 @@
         <v>22</v>
       </c>
       <c r="K81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L81">
         <v>2000</v>
@@ -3568,13 +3567,13 @@
         <v>2</v>
       </c>
       <c r="D82">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E82" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H82">
         <v>10</v>
@@ -3586,7 +3585,7 @@
         <v>22</v>
       </c>
       <c r="K82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L82">
         <v>2500</v>
@@ -3603,13 +3602,13 @@
         <v>3</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>2000</v>
       </c>
       <c r="H83">
         <v>10</v>
@@ -3621,7 +3620,7 @@
         <v>22</v>
       </c>
       <c r="K83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L83">
         <v>10000</v>
@@ -3638,13 +3637,13 @@
         <v>4</v>
       </c>
       <c r="D84">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="H84">
         <v>10</v>
@@ -3673,13 +3672,13 @@
         <v>5</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H85">
         <v>10</v>
@@ -3691,7 +3690,7 @@
         <v>22</v>
       </c>
       <c r="K85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L85">
         <v>2500</v>
@@ -3708,13 +3707,13 @@
         <v>6</v>
       </c>
       <c r="D86">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H86">
         <v>10</v>
@@ -3726,7 +3725,7 @@
         <v>22</v>
       </c>
       <c r="K86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L86">
         <v>4500</v>
@@ -3743,13 +3742,13 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E87" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H87">
         <v>10</v>
@@ -3761,7 +3760,7 @@
         <v>22</v>
       </c>
       <c r="K87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L87">
         <v>2000</v>
@@ -3784,7 +3783,7 @@
         <v>21</v>
       </c>
       <c r="F88">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H88">
         <v>10</v>
@@ -3813,13 +3812,13 @@
         <v>2</v>
       </c>
       <c r="D89">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H89">
         <v>10</v>
@@ -3831,7 +3830,7 @@
         <v>22</v>
       </c>
       <c r="K89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L89">
         <v>2500</v>
@@ -3848,13 +3847,13 @@
         <v>3</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H90">
         <v>10</v>
@@ -3866,7 +3865,7 @@
         <v>22</v>
       </c>
       <c r="K90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L90">
         <v>3000</v>
@@ -3883,13 +3882,13 @@
         <v>4</v>
       </c>
       <c r="D91">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E91" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H91">
         <v>10</v>
@@ -3918,13 +3917,13 @@
         <v>5</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F92">
-        <v>7</v>
+        <v>2500</v>
       </c>
       <c r="H92">
         <v>10</v>
@@ -3936,7 +3935,7 @@
         <v>22</v>
       </c>
       <c r="K92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L92">
         <v>1500</v>
@@ -3953,13 +3952,13 @@
         <v>6</v>
       </c>
       <c r="D93">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="H93">
         <v>10</v>
@@ -3988,13 +3987,13 @@
         <v>7</v>
       </c>
       <c r="D94">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F94">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H94">
         <v>10</v>
@@ -4006,7 +4005,7 @@
         <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L94">
         <v>2000</v>
@@ -4023,13 +4022,13 @@
         <v>8</v>
       </c>
       <c r="D95">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F95">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H95">
         <v>10</v>
@@ -4064,7 +4063,7 @@
         <v>21</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H96">
         <v>10</v>
@@ -4073,10 +4072,10 @@
         <v>235</v>
       </c>
       <c r="J96" t="s">
+        <v>41</v>
+      </c>
+      <c r="K96" t="s">
         <v>42</v>
-      </c>
-      <c r="K96" t="s">
-        <v>43</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -4093,13 +4092,13 @@
         <v>2</v>
       </c>
       <c r="D97">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>10</v>
@@ -4108,10 +4107,10 @@
         <v>370</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -4128,10 +4127,10 @@
         <v>3</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4143,10 +4142,10 @@
         <v>593</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -4163,13 +4162,13 @@
         <v>4</v>
       </c>
       <c r="D99">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H99">
         <v>10</v>
@@ -4178,10 +4177,10 @@
         <v>223</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L99">
         <v>1</v>
@@ -4198,10 +4197,10 @@
         <v>5</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -4216,7 +4215,7 @@
         <v>22</v>
       </c>
       <c r="K100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L100">
         <v>2500</v>
@@ -4227,34 +4226,34 @@
         <v>3</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D101">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E101" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>10</v>
       </c>
       <c r="I101">
-        <v>259</v>
+        <v>559</v>
       </c>
       <c r="J101" t="s">
         <v>22</v>
       </c>
       <c r="K101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L101">
-        <v>25</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4265,7 +4264,7 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102">
         <v>11</v>
@@ -4274,22 +4273,22 @@
         <v>21</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H102">
         <v>10</v>
       </c>
       <c r="I102">
-        <v>512</v>
+        <v>259</v>
       </c>
       <c r="J102" t="s">
         <v>22</v>
       </c>
       <c r="K102" t="s">
+        <v>23</v>
+      </c>
+      <c r="L102">
         <v>25</v>
-      </c>
-      <c r="L102">
-        <v>2000</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4300,31 +4299,31 @@
         <v>2</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>10</v>
+      </c>
+      <c r="I103">
+        <v>512</v>
+      </c>
+      <c r="J103" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" t="s">
         <v>24</v>
       </c>
-      <c r="F103">
-        <v>2</v>
-      </c>
-      <c r="H103">
-        <v>10</v>
-      </c>
-      <c r="I103">
-        <v>956</v>
-      </c>
-      <c r="J103" t="s">
-        <v>22</v>
-      </c>
-      <c r="K103" t="s">
-        <v>25</v>
-      </c>
       <c r="L103">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4335,31 +4334,31 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D104">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>10</v>
       </c>
       <c r="I104">
-        <v>772</v>
+        <v>956</v>
       </c>
       <c r="J104" t="s">
         <v>22</v>
       </c>
       <c r="K104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L104">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4370,31 +4369,31 @@
         <v>2</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>10</v>
       </c>
       <c r="I105">
-        <v>462</v>
+        <v>772</v>
       </c>
       <c r="J105" t="s">
         <v>22</v>
       </c>
       <c r="K105" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L105">
-        <v>20</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4405,31 +4404,31 @@
         <v>2</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E106" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F106">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="H106">
         <v>10</v>
       </c>
       <c r="I106">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="J106" t="s">
         <v>22</v>
       </c>
       <c r="K106" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L106">
-        <v>2500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4437,34 +4436,34 @@
         <v>3</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E107" t="s">
+        <v>59</v>
+      </c>
+      <c r="F107">
+        <v>15</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
+      </c>
+      <c r="I107">
+        <v>396</v>
+      </c>
+      <c r="J107" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" t="s">
         <v>24</v>
       </c>
-      <c r="F107">
-        <v>3</v>
-      </c>
-      <c r="H107">
-        <v>10</v>
-      </c>
-      <c r="I107">
-        <v>914</v>
-      </c>
-      <c r="J107" t="s">
-        <v>22</v>
-      </c>
-      <c r="K107" t="s">
-        <v>25</v>
-      </c>
       <c r="L107">
-        <v>4500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4472,34 +4471,34 @@
         <v>3</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D108">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E108" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>10</v>
       </c>
       <c r="I108">
-        <v>810</v>
+        <v>396</v>
       </c>
       <c r="J108" t="s">
         <v>22</v>
       </c>
       <c r="K108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L108">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4510,7 +4509,7 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>11</v>
@@ -4519,22 +4518,22 @@
         <v>21</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H109">
         <v>10</v>
       </c>
       <c r="I109">
-        <v>607</v>
+        <v>914</v>
       </c>
       <c r="J109" t="s">
         <v>22</v>
       </c>
       <c r="K109" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L109">
-        <v>50</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4545,31 +4544,31 @@
         <v>3</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110">
         <v>10</v>
       </c>
       <c r="I110">
-        <v>457</v>
+        <v>810</v>
       </c>
       <c r="J110" t="s">
         <v>22</v>
       </c>
       <c r="K110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L110">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4580,31 +4579,31 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H111">
         <v>10</v>
       </c>
       <c r="I111">
-        <v>803</v>
+        <v>607</v>
       </c>
       <c r="J111" t="s">
         <v>22</v>
       </c>
       <c r="K111" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L111">
-        <v>3000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -4612,16 +4611,16 @@
         <v>3</v>
       </c>
       <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
         <v>4</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
       <c r="D112">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F112">
         <v>4</v>
@@ -4630,16 +4629,16 @@
         <v>10</v>
       </c>
       <c r="I112">
-        <v>781</v>
+        <v>457</v>
       </c>
       <c r="J112" t="s">
         <v>22</v>
       </c>
       <c r="K112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L112">
-        <v>20</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -4647,34 +4646,34 @@
         <v>3</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D113">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E113" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H113">
         <v>10</v>
       </c>
       <c r="I113">
-        <v>246</v>
+        <v>803</v>
       </c>
       <c r="J113" t="s">
         <v>22</v>
       </c>
       <c r="K113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L113">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -4682,34 +4681,34 @@
         <v>3</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E114" t="s">
+        <v>59</v>
+      </c>
+      <c r="F114">
+        <v>30</v>
+      </c>
+      <c r="H114">
+        <v>10</v>
+      </c>
+      <c r="I114">
+        <v>157</v>
+      </c>
+      <c r="J114" t="s">
+        <v>22</v>
+      </c>
+      <c r="K114" t="s">
         <v>24</v>
       </c>
-      <c r="F114">
-        <v>5</v>
-      </c>
-      <c r="H114">
-        <v>10</v>
-      </c>
-      <c r="I114">
-        <v>329</v>
-      </c>
-      <c r="J114" t="s">
-        <v>22</v>
-      </c>
-      <c r="K114" t="s">
-        <v>23</v>
-      </c>
       <c r="L114">
-        <v>25</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -4720,7 +4719,7 @@
         <v>4</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>11</v>
@@ -4729,22 +4728,22 @@
         <v>21</v>
       </c>
       <c r="F115">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H115">
         <v>10</v>
       </c>
       <c r="I115">
-        <v>927</v>
+        <v>781</v>
       </c>
       <c r="J115" t="s">
         <v>22</v>
       </c>
       <c r="K115" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L115">
-        <v>2000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -4755,13 +4754,13 @@
         <v>4</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F116">
         <v>4</v>
@@ -4770,16 +4769,16 @@
         <v>10</v>
       </c>
       <c r="I116">
-        <v>778</v>
+        <v>246</v>
       </c>
       <c r="J116" t="s">
         <v>22</v>
       </c>
       <c r="K116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L116">
-        <v>30</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -4790,31 +4789,31 @@
         <v>4</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D117">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F117">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="H117">
         <v>10</v>
       </c>
       <c r="I117">
-        <v>816</v>
+        <v>329</v>
       </c>
       <c r="J117" t="s">
         <v>22</v>
       </c>
       <c r="K117" t="s">
+        <v>23</v>
+      </c>
+      <c r="L117">
         <v>25</v>
-      </c>
-      <c r="L117">
-        <v>2500</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -4825,31 +4824,31 @@
         <v>4</v>
       </c>
       <c r="C118">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D118">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E118" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H118">
         <v>10</v>
       </c>
       <c r="I118">
-        <v>301</v>
+        <v>927</v>
       </c>
       <c r="J118" t="s">
         <v>22</v>
       </c>
       <c r="K118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L118">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -4857,34 +4856,34 @@
         <v>3</v>
       </c>
       <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119">
         <v>5</v>
       </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
       <c r="D119">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F119">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H119">
         <v>10</v>
       </c>
       <c r="I119">
-        <v>505</v>
+        <v>778</v>
       </c>
       <c r="J119" t="s">
         <v>22</v>
       </c>
       <c r="K119" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L119">
-        <v>2000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -4892,34 +4891,34 @@
         <v>3</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D120">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F120">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H120">
         <v>10</v>
       </c>
       <c r="I120">
-        <v>735</v>
+        <v>816</v>
       </c>
       <c r="J120" t="s">
         <v>22</v>
       </c>
       <c r="K120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L120">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -4927,34 +4926,34 @@
         <v>3</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E121" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F121">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H121">
         <v>10</v>
       </c>
       <c r="I121">
-        <v>485</v>
+        <v>301</v>
       </c>
       <c r="J121" t="s">
         <v>22</v>
       </c>
       <c r="K121" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L121">
-        <v>2500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -4965,7 +4964,7 @@
         <v>5</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>11</v>
@@ -4974,22 +4973,22 @@
         <v>21</v>
       </c>
       <c r="F122">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H122">
         <v>10</v>
       </c>
       <c r="I122">
-        <v>965</v>
+        <v>505</v>
       </c>
       <c r="J122" t="s">
         <v>22</v>
       </c>
       <c r="K122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L122">
-        <v>25</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5000,13 +4999,13 @@
         <v>5</v>
       </c>
       <c r="C123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F123">
         <v>5</v>
@@ -5015,16 +5014,16 @@
         <v>10</v>
       </c>
       <c r="I123">
-        <v>504</v>
+        <v>735</v>
       </c>
       <c r="J123" t="s">
         <v>22</v>
       </c>
       <c r="K123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L123">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5035,28 +5034,28 @@
         <v>5</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D124">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H124">
         <v>10</v>
       </c>
       <c r="I124">
-        <v>902</v>
+        <v>485</v>
       </c>
       <c r="J124" t="s">
         <v>22</v>
       </c>
       <c r="K124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L124">
         <v>2500</v>
@@ -5067,34 +5066,34 @@
         <v>3</v>
       </c>
       <c r="B125">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D125">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E125" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F125">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="H125">
         <v>10</v>
       </c>
       <c r="I125">
-        <v>830</v>
+        <v>965</v>
       </c>
       <c r="J125" t="s">
         <v>22</v>
       </c>
       <c r="K125" t="s">
+        <v>23</v>
+      </c>
+      <c r="L125">
         <v>25</v>
-      </c>
-      <c r="L125">
-        <v>10000</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5102,34 +5101,34 @@
         <v>3</v>
       </c>
       <c r="B126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D126">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E126" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F126">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H126">
         <v>10</v>
       </c>
       <c r="I126">
-        <v>424</v>
+        <v>504</v>
       </c>
       <c r="J126" t="s">
         <v>22</v>
       </c>
       <c r="K126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L126">
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5137,16 +5136,16 @@
         <v>3</v>
       </c>
       <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127">
         <v>6</v>
       </c>
-      <c r="C127">
-        <v>3</v>
-      </c>
       <c r="D127">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F127">
         <v>6</v>
@@ -5155,13 +5154,13 @@
         <v>10</v>
       </c>
       <c r="I127">
-        <v>481</v>
+        <v>902</v>
       </c>
       <c r="J127" t="s">
         <v>22</v>
       </c>
       <c r="K127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L127">
         <v>2500</v>
@@ -5175,31 +5174,31 @@
         <v>6</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128">
+        <v>30</v>
+      </c>
+      <c r="H128">
+        <v>10</v>
+      </c>
+      <c r="I128">
+        <v>830</v>
+      </c>
+      <c r="J128" t="s">
+        <v>22</v>
+      </c>
+      <c r="K128" t="s">
         <v>24</v>
       </c>
-      <c r="F128">
-        <v>7</v>
-      </c>
-      <c r="H128">
-        <v>10</v>
-      </c>
-      <c r="I128">
-        <v>275</v>
-      </c>
-      <c r="J128" t="s">
-        <v>22</v>
-      </c>
-      <c r="K128" t="s">
-        <v>25</v>
-      </c>
       <c r="L128">
-        <v>4500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5210,31 +5209,31 @@
         <v>6</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H129">
         <v>10</v>
       </c>
       <c r="I129">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="J129" t="s">
         <v>22</v>
       </c>
       <c r="K129" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L129">
-        <v>2000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -5245,31 +5244,31 @@
         <v>6</v>
       </c>
       <c r="C130">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E130" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F130">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H130">
         <v>10</v>
       </c>
       <c r="I130">
-        <v>647</v>
+        <v>481</v>
       </c>
       <c r="J130" t="s">
         <v>22</v>
       </c>
       <c r="K130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L130">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -5280,13 +5279,13 @@
         <v>6</v>
       </c>
       <c r="C131">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E131" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F131">
         <v>6</v>
@@ -5295,16 +5294,16 @@
         <v>10</v>
       </c>
       <c r="I131">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="J131" t="s">
         <v>22</v>
       </c>
       <c r="K131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L131">
-        <v>2500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5312,34 +5311,34 @@
         <v>3</v>
       </c>
       <c r="B132">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D132">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E132" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F132">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H132">
         <v>10</v>
       </c>
       <c r="I132">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="J132" t="s">
         <v>22</v>
       </c>
       <c r="K132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L132">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -5347,25 +5346,25 @@
         <v>3</v>
       </c>
       <c r="B133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E133" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F133">
-        <v>7</v>
+        <v>2000</v>
       </c>
       <c r="H133">
         <v>10</v>
       </c>
       <c r="I133">
-        <v>730</v>
+        <v>647</v>
       </c>
       <c r="J133" t="s">
         <v>22</v>
@@ -5374,7 +5373,7 @@
         <v>23</v>
       </c>
       <c r="L133">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -5382,34 +5381,34 @@
         <v>3</v>
       </c>
       <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="C134">
         <v>7</v>
       </c>
-      <c r="C134">
-        <v>3</v>
-      </c>
       <c r="D134">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H134">
         <v>10</v>
       </c>
       <c r="I134">
-        <v>624</v>
+        <v>256</v>
       </c>
       <c r="J134" t="s">
         <v>22</v>
       </c>
       <c r="K134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L134">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -5420,7 +5419,7 @@
         <v>7</v>
       </c>
       <c r="C135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D135">
         <v>11</v>
@@ -5429,22 +5428,22 @@
         <v>21</v>
       </c>
       <c r="F135">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="H135">
         <v>10</v>
       </c>
       <c r="I135">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="J135" t="s">
         <v>22</v>
       </c>
       <c r="K135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L135">
-        <v>25</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -5455,31 +5454,31 @@
         <v>7</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E136" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F136">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H136">
         <v>10</v>
       </c>
       <c r="I136">
-        <v>362</v>
+        <v>730</v>
       </c>
       <c r="J136" t="s">
         <v>22</v>
       </c>
       <c r="K136" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L136">
-        <v>2000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5490,31 +5489,31 @@
         <v>7</v>
       </c>
       <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>16</v>
+      </c>
+      <c r="E137" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137">
         <v>6</v>
       </c>
-      <c r="D137">
-        <v>11</v>
-      </c>
-      <c r="E137" t="s">
-        <v>21</v>
-      </c>
-      <c r="F137">
-        <v>8</v>
-      </c>
       <c r="H137">
         <v>10</v>
       </c>
       <c r="I137">
-        <v>202</v>
+        <v>624</v>
       </c>
       <c r="J137" t="s">
         <v>22</v>
       </c>
       <c r="K137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L137">
-        <v>30</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -5525,31 +5524,171 @@
         <v>7</v>
       </c>
       <c r="C138">
+        <v>4</v>
+      </c>
+      <c r="D138">
+        <v>20</v>
+      </c>
+      <c r="E138" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138">
+        <v>2500</v>
+      </c>
+      <c r="H138">
+        <v>10</v>
+      </c>
+      <c r="I138">
+        <v>540</v>
+      </c>
+      <c r="J138" t="s">
+        <v>22</v>
+      </c>
+      <c r="K138" t="s">
+        <v>23</v>
+      </c>
+      <c r="L138">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>3</v>
+      </c>
+      <c r="B139">
         <v>7</v>
       </c>
-      <c r="D138">
-        <v>11</v>
-      </c>
-      <c r="E138" t="s">
-        <v>21</v>
-      </c>
-      <c r="F138">
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>26</v>
+      </c>
+      <c r="E139" t="s">
+        <v>59</v>
+      </c>
+      <c r="F139">
+        <v>120</v>
+      </c>
+      <c r="H139">
+        <v>10</v>
+      </c>
+      <c r="I139">
+        <v>362</v>
+      </c>
+      <c r="J139" t="s">
+        <v>22</v>
+      </c>
+      <c r="K139" t="s">
+        <v>24</v>
+      </c>
+      <c r="L139">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140">
         <v>7</v>
       </c>
-      <c r="H138">
-        <v>10</v>
-      </c>
-      <c r="I138">
+      <c r="C140">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>27</v>
+      </c>
+      <c r="E140" t="s">
+        <v>60</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="H140">
+        <v>10</v>
+      </c>
+      <c r="I140">
+        <v>202</v>
+      </c>
+      <c r="J140" t="s">
+        <v>22</v>
+      </c>
+      <c r="K140" t="s">
+        <v>23</v>
+      </c>
+      <c r="L140">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>7</v>
+      </c>
+      <c r="D141">
+        <v>29</v>
+      </c>
+      <c r="E141" t="s">
+        <v>61</v>
+      </c>
+      <c r="F141">
+        <v>8</v>
+      </c>
+      <c r="H141">
+        <v>10</v>
+      </c>
+      <c r="I141">
         <v>490</v>
       </c>
-      <c r="J138" t="s">
-        <v>22</v>
-      </c>
-      <c r="K138" t="s">
-        <v>25</v>
-      </c>
-      <c r="L138">
+      <c r="J141" t="s">
+        <v>22</v>
+      </c>
+      <c r="K141" t="s">
+        <v>24</v>
+      </c>
+      <c r="L141">
         <v>2500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>3</v>
+      </c>
+      <c r="B142">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <v>8</v>
+      </c>
+      <c r="D142">
+        <v>30</v>
+      </c>
+      <c r="E142" t="s">
+        <v>58</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+      <c r="H142">
+        <v>10</v>
+      </c>
+      <c r="I142">
+        <v>715</v>
+      </c>
+      <c r="J142" t="s">
+        <v>22</v>
+      </c>
+      <c r="K142" t="s">
+        <v>23</v>
+      </c>
+      <c r="L142">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5576,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
@@ -5625,7 +5764,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>1700</v>
@@ -5642,10 +5781,10 @@
         <v>557</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5665,7 +5804,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>2500</v>
@@ -5702,10 +5841,10 @@
         <v>672</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -5742,10 +5881,10 @@
         <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5785,7 +5924,7 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <v>1900</v>
@@ -5802,10 +5941,10 @@
         <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -5825,7 +5964,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <v>2500</v>
@@ -5862,10 +6001,10 @@
         <v>560</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -5902,10 +6041,10 @@
         <v>775</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -5945,7 +6084,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19">
         <v>1500</v>
@@ -5962,10 +6101,10 @@
         <v>380</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -5985,7 +6124,7 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <v>2500</v>
@@ -6022,10 +6161,10 @@
         <v>976</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -6062,10 +6201,10 @@
         <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -6093,13 +6232,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6128,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>1036800</v>
@@ -6163,7 +6302,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>1036800</v>
@@ -6198,7 +6337,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>1036800</v>
@@ -6267,7 +6406,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -6284,7 +6423,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -6307,7 +6446,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -6330,7 +6469,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -6353,7 +6492,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>120</v>
@@ -6376,7 +6515,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -6399,7 +6538,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -6422,7 +6561,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -6445,7 +6584,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -6468,7 +6607,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>60</v>
@@ -6491,7 +6630,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>120</v>
@@ -6514,7 +6653,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -6537,7 +6676,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -6560,7 +6699,7 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -6583,7 +6722,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -6606,7 +6745,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>60</v>
@@ -6629,7 +6768,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>120</v>
@@ -6652,7 +6791,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -6675,7 +6814,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -6715,10 +6854,10 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -6750,10 +6889,10 @@
         <v>661</v>
       </c>
       <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -6776,10 +6915,10 @@
         <v>514</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -6802,10 +6941,10 @@
         <v>595</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -6828,10 +6967,10 @@
         <v>439</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -6883,7 +7022,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7">
         <v>2500</v>
@@ -6932,10 +7071,10 @@
         <v>891</v>
       </c>
       <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
         <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -6958,10 +7097,10 @@
         <v>438</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -6984,10 +7123,10 @@
         <v>781</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -7010,10 +7149,10 @@
         <v>556</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -7065,7 +7204,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14">
         <v>2500</v>
@@ -7117,7 +7256,7 @@
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>2000</v>
@@ -7140,10 +7279,10 @@
         <v>694</v>
       </c>
       <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
         <v>42</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -7166,10 +7305,10 @@
         <v>626</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -7192,10 +7331,10 @@
         <v>868</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -7218,10 +7357,10 @@
         <v>836</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -7273,7 +7412,7 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22">
         <v>2500</v>
@@ -7325,7 +7464,7 @@
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24">
         <v>2000</v>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03292223-8B72-4CF6-9598-25E8731DAC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60351095-E860-40FE-B8FA-09E20CD251C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5701,9 +5701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F5A8A-CC2C-4E3D-998F-03E9F0CD83AA}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5855,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C8">
         <v>930</v>
@@ -6015,7 +6013,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C16">
         <v>943</v>
@@ -6175,7 +6173,7 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C24">
         <v>542</v>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60351095-E860-40FE-B8FA-09E20CD251C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861327EA-894E-4262-9796-EFB5CBD63A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -872,13 +872,13 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -5701,7 +5701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F5A8A-CC2C-4E3D-998F-03E9F0CD83AA}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861327EA-894E-4262-9796-EFB5CBD63A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284ADF41-F4B2-4478-B9DD-BECA8AB351CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="80">
   <si>
     <t>groupId|Int</t>
   </si>
@@ -230,7 +230,55 @@
     <t>QuestDesc_28</t>
   </si>
   <si>
-    <t>Equip031001</t>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>Equip002001</t>
+  </si>
+  <si>
+    <t>Equip017002</t>
+  </si>
+  <si>
+    <t>Pet_0031</t>
+  </si>
+  <si>
+    <t>Equip025002</t>
+  </si>
+  <si>
+    <t>Pet_0003</t>
+  </si>
+  <si>
+    <t>Spell_0020</t>
+  </si>
+  <si>
+    <t>Equip016001</t>
+  </si>
+  <si>
+    <t>Equip011003</t>
+  </si>
+  <si>
+    <t>Equip023003</t>
+  </si>
+  <si>
+    <t>Pet_0011</t>
+  </si>
+  <si>
+    <t>Equip027001</t>
+  </si>
+  <si>
+    <t>Pet_0016</t>
+  </si>
+  <si>
+    <t>Pet_0026</t>
+  </si>
+  <si>
+    <t>Pet_0014</t>
+  </si>
+  <si>
+    <t>Equip022001</t>
+  </si>
+  <si>
+    <t>Pet_0009</t>
   </si>
 </sst>
 </file>
@@ -776,19 +824,19 @@
         <v>20</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>653</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -817,13 +865,13 @@
         <v>277</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -846,19 +894,19 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>387</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -881,19 +929,19 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I5">
         <v>728</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -916,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>876</v>
@@ -925,10 +973,10 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -951,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <v>654</v>
@@ -963,7 +1011,7 @@
         <v>23</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -986,7 +1034,7 @@
         <v>40</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <v>364</v>
@@ -995,10 +1043,10 @@
         <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1021,19 +1069,19 @@
         <v>40</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I9">
         <v>916</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1056,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I10">
         <v>938</v>
@@ -1068,7 +1116,7 @@
         <v>23</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1091,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I11">
         <v>545</v>
@@ -1100,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1126,7 +1174,7 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I12">
         <v>505</v>
@@ -1135,10 +1183,10 @@
         <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1173,7 +1221,7 @@
         <v>23</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1196,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I14">
         <v>565</v>
@@ -1231,7 +1279,7 @@
         <v>50</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I15">
         <v>998</v>
@@ -1266,7 +1314,7 @@
         <v>50</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I16">
         <v>162</v>
@@ -1275,10 +1323,10 @@
         <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1301,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I17">
         <v>828</v>
@@ -1310,10 +1358,10 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1336,19 +1384,19 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I18">
         <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1371,7 +1419,7 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I19">
         <v>662</v>
@@ -1380,10 +1428,10 @@
         <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1406,7 +1454,7 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I20">
         <v>904</v>
@@ -1418,7 +1466,7 @@
         <v>23</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1441,7 +1489,7 @@
         <v>60</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I21">
         <v>300</v>
@@ -1450,10 +1498,10 @@
         <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21">
-        <v>10</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1476,7 +1524,7 @@
         <v>60</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I22">
         <v>123</v>
@@ -1511,19 +1559,19 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I23">
         <v>807</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1546,7 +1594,7 @@
         <v>60</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I24">
         <v>841</v>
@@ -1555,10 +1603,10 @@
         <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1581,7 +1629,7 @@
         <v>6</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I25">
         <v>810</v>
@@ -1593,7 +1641,7 @@
         <v>23</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1616,7 +1664,7 @@
         <v>1000</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I26">
         <v>870</v>
@@ -1625,10 +1673,10 @@
         <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1651,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I27">
         <v>445</v>
@@ -1660,10 +1708,10 @@
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1686,7 +1734,7 @@
         <v>70</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I28">
         <v>347</v>
@@ -1721,7 +1769,7 @@
         <v>8</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I29">
         <v>227</v>
@@ -1730,10 +1778,10 @@
         <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1756,7 +1804,7 @@
         <v>8</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I30">
         <v>659</v>
@@ -1765,10 +1813,10 @@
         <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1791,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I31">
         <v>710</v>
@@ -1800,10 +1848,10 @@
         <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1826,19 +1874,19 @@
         <v>30</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I32">
         <v>806</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1861,7 +1909,7 @@
         <v>8</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I33">
         <v>906</v>
@@ -1896,7 +1944,7 @@
         <v>80</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I34">
         <v>991</v>
@@ -1905,10 +1953,10 @@
         <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L34">
-        <v>10</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1931,7 +1979,7 @@
         <v>80</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I35">
         <v>257</v>
@@ -1966,7 +2014,7 @@
         <v>2000</v>
       </c>
       <c r="H36">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I36">
         <v>861</v>
@@ -1975,10 +2023,10 @@
         <v>22</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2001,7 +2049,7 @@
         <v>6</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I37">
         <v>952</v>
@@ -2010,10 +2058,10 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2036,19 +2084,19 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I38">
         <v>277</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K38" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2071,7 +2119,7 @@
         <v>20</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I39">
         <v>508</v>
@@ -2083,7 +2131,7 @@
         <v>23</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2106,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I40">
         <v>280</v>
@@ -2115,10 +2163,10 @@
         <v>22</v>
       </c>
       <c r="K40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2141,7 +2189,7 @@
         <v>100</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I41">
         <v>930</v>
@@ -2153,7 +2201,7 @@
         <v>23</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2176,19 +2224,19 @@
         <v>6</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I42">
         <v>654</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="L42">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2211,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I43">
         <v>841</v>
@@ -2220,10 +2268,10 @@
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2246,7 +2294,7 @@
         <v>12</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I44">
         <v>783</v>
@@ -2281,7 +2329,7 @@
         <v>120</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I45">
         <v>580</v>
@@ -2290,10 +2338,10 @@
         <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L45">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2316,7 +2364,7 @@
         <v>7</v>
       </c>
       <c r="H46">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I46">
         <v>596</v>
@@ -2325,10 +2373,10 @@
         <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L46">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2351,7 +2399,7 @@
         <v>15</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I47">
         <v>852</v>
@@ -2360,10 +2408,10 @@
         <v>22</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L47">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2386,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="H48">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I48">
         <v>463</v>
@@ -2421,19 +2469,19 @@
         <v>3</v>
       </c>
       <c r="H49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I49">
         <v>144</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K49" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2456,19 +2504,19 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I50">
         <v>563</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2491,19 +2539,19 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I51">
         <v>906</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K51" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2526,19 +2574,19 @@
         <v>30</v>
       </c>
       <c r="H52">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I52">
         <v>656</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K52" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2561,7 +2609,7 @@
         <v>15</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I53">
         <v>521</v>
@@ -2570,10 +2618,10 @@
         <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2596,19 +2644,19 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I54">
         <v>841</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K54" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="L54">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2631,7 +2679,7 @@
         <v>6</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I55">
         <v>654</v>
@@ -2643,7 +2691,7 @@
         <v>24</v>
       </c>
       <c r="L55">
-        <v>2500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2666,7 +2714,7 @@
         <v>2</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I56">
         <v>549</v>
@@ -2675,10 +2723,10 @@
         <v>22</v>
       </c>
       <c r="K56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L56">
-        <v>100</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2701,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I57">
         <v>815</v>
@@ -2710,10 +2758,10 @@
         <v>22</v>
       </c>
       <c r="K57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L57">
-        <v>2000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2736,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I58">
         <v>265</v>
@@ -2745,10 +2793,10 @@
         <v>22</v>
       </c>
       <c r="K58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L58">
-        <v>1500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2771,7 +2819,7 @@
         <v>300</v>
       </c>
       <c r="H59">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I59">
         <v>495</v>
@@ -2780,10 +2828,10 @@
         <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L59">
-        <v>2500</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2806,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="H60">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I60">
         <v>757</v>
@@ -2818,7 +2866,7 @@
         <v>23</v>
       </c>
       <c r="L60">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2841,19 +2889,19 @@
         <v>2</v>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I61">
         <v>660</v>
       </c>
       <c r="J61" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K61" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="L61">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2876,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="H62">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I62">
         <v>852</v>
@@ -2885,10 +2933,10 @@
         <v>22</v>
       </c>
       <c r="K62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L62">
-        <v>2500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -2911,7 +2959,7 @@
         <v>3</v>
       </c>
       <c r="H63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I63">
         <v>641</v>
@@ -2946,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I64">
         <v>908</v>
@@ -2955,10 +3003,10 @@
         <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L64">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2981,7 +3029,7 @@
         <v>900</v>
       </c>
       <c r="H65">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I65">
         <v>422</v>
@@ -2993,7 +3041,7 @@
         <v>24</v>
       </c>
       <c r="L65">
-        <v>2500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3016,19 +3064,19 @@
         <v>2</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I66">
         <v>774</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K66" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="L66">
-        <v>4500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3051,7 +3099,7 @@
         <v>4</v>
       </c>
       <c r="H67">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I67">
         <v>188</v>
@@ -3060,10 +3108,10 @@
         <v>22</v>
       </c>
       <c r="K67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L67">
-        <v>2000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3086,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="H68">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I68">
         <v>958</v>
@@ -3095,10 +3143,10 @@
         <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L68">
-        <v>50</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3121,7 +3169,7 @@
         <v>4</v>
       </c>
       <c r="H69">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I69">
         <v>667</v>
@@ -3130,10 +3178,10 @@
         <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L69">
-        <v>2500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3156,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="H70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I70">
         <v>615</v>
@@ -3165,10 +3213,10 @@
         <v>22</v>
       </c>
       <c r="K70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L70">
-        <v>3000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3191,7 +3239,7 @@
         <v>3</v>
       </c>
       <c r="H71">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I71">
         <v>552</v>
@@ -3200,10 +3248,10 @@
         <v>22</v>
       </c>
       <c r="K71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L71">
-        <v>20</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3226,7 +3274,7 @@
         <v>3</v>
       </c>
       <c r="H72">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I72">
         <v>200</v>
@@ -3235,10 +3283,10 @@
         <v>22</v>
       </c>
       <c r="K72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L72">
-        <v>1500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3261,7 +3309,7 @@
         <v>60</v>
       </c>
       <c r="H73">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I73">
         <v>178</v>
@@ -3270,10 +3318,10 @@
         <v>22</v>
       </c>
       <c r="K73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L73">
-        <v>25</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3296,19 +3344,19 @@
         <v>6</v>
       </c>
       <c r="H74">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I74">
         <v>769</v>
       </c>
       <c r="J74" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K74" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="L74">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3331,7 +3379,7 @@
         <v>15</v>
       </c>
       <c r="H75">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I75">
         <v>707</v>
@@ -3340,10 +3388,10 @@
         <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L75">
-        <v>2500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3366,7 +3414,7 @@
         <v>5</v>
       </c>
       <c r="H76">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I76">
         <v>897</v>
@@ -3378,7 +3426,7 @@
         <v>23</v>
       </c>
       <c r="L76">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3401,7 +3449,7 @@
         <v>4</v>
       </c>
       <c r="H77">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I77">
         <v>760</v>
@@ -3413,7 +3461,7 @@
         <v>24</v>
       </c>
       <c r="L77">
-        <v>2000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3436,19 +3484,19 @@
         <v>1500</v>
       </c>
       <c r="H78">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I78">
         <v>355</v>
       </c>
       <c r="J78" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K78" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="L78">
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3471,7 +3519,7 @@
         <v>80</v>
       </c>
       <c r="H79">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I79">
         <v>239</v>
@@ -3483,7 +3531,7 @@
         <v>24</v>
       </c>
       <c r="L79">
-        <v>2500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3506,7 +3554,7 @@
         <v>8</v>
       </c>
       <c r="H80">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I80">
         <v>557</v>
@@ -3515,10 +3563,10 @@
         <v>22</v>
       </c>
       <c r="K80" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L80">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3541,7 +3589,7 @@
         <v>20</v>
       </c>
       <c r="H81">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I81">
         <v>384</v>
@@ -3553,7 +3601,7 @@
         <v>24</v>
       </c>
       <c r="L81">
-        <v>2000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3576,7 +3624,7 @@
         <v>6</v>
       </c>
       <c r="H82">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I82">
         <v>579</v>
@@ -3585,10 +3633,10 @@
         <v>22</v>
       </c>
       <c r="K82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L82">
-        <v>2500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -3611,7 +3659,7 @@
         <v>2000</v>
       </c>
       <c r="H83">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I83">
         <v>560</v>
@@ -3623,7 +3671,7 @@
         <v>24</v>
       </c>
       <c r="L83">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -3646,7 +3694,7 @@
         <v>100</v>
       </c>
       <c r="H84">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I84">
         <v>835</v>
@@ -3655,10 +3703,10 @@
         <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L84">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -3681,7 +3729,7 @@
         <v>10</v>
       </c>
       <c r="H85">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I85">
         <v>295</v>
@@ -3690,10 +3738,10 @@
         <v>22</v>
       </c>
       <c r="K85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L85">
-        <v>2500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -3716,19 +3764,19 @@
         <v>6</v>
       </c>
       <c r="H86">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I86">
         <v>331</v>
       </c>
       <c r="J86" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K86" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="L86">
-        <v>4500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -3751,7 +3799,7 @@
         <v>10</v>
       </c>
       <c r="H87">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I87">
         <v>772</v>
@@ -3763,7 +3811,7 @@
         <v>24</v>
       </c>
       <c r="L87">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3786,7 +3834,7 @@
         <v>24</v>
       </c>
       <c r="H88">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I88">
         <v>598</v>
@@ -3798,7 +3846,7 @@
         <v>23</v>
       </c>
       <c r="L88">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -3821,7 +3869,7 @@
         <v>7</v>
       </c>
       <c r="H89">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I89">
         <v>643</v>
@@ -3833,7 +3881,7 @@
         <v>24</v>
       </c>
       <c r="L89">
-        <v>2500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -3856,7 +3904,7 @@
         <v>6</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I90">
         <v>909</v>
@@ -3865,10 +3913,10 @@
         <v>22</v>
       </c>
       <c r="K90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L90">
-        <v>3000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -3891,19 +3939,19 @@
         <v>4</v>
       </c>
       <c r="H91">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I91">
         <v>221</v>
       </c>
       <c r="J91" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K91" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="L91">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -3926,7 +3974,7 @@
         <v>2500</v>
       </c>
       <c r="H92">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I92">
         <v>896</v>
@@ -3938,7 +3986,7 @@
         <v>24</v>
       </c>
       <c r="L92">
-        <v>1500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3961,7 +4009,7 @@
         <v>120</v>
       </c>
       <c r="H93">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I93">
         <v>801</v>
@@ -3973,7 +4021,7 @@
         <v>23</v>
       </c>
       <c r="L93">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -3996,7 +4044,7 @@
         <v>10</v>
       </c>
       <c r="H94">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I94">
         <v>154</v>
@@ -4005,10 +4053,10 @@
         <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L94">
-        <v>2000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -4031,7 +4079,7 @@
         <v>12</v>
       </c>
       <c r="H95">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I95">
         <v>121</v>
@@ -4040,10 +4088,10 @@
         <v>22</v>
       </c>
       <c r="K95" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L95">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4066,19 +4114,19 @@
         <v>5</v>
       </c>
       <c r="H96">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I96">
         <v>235</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K96" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4101,19 +4149,19 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I97">
         <v>370</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K97" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="L97">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4136,19 +4184,19 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I98">
         <v>593</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K98" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4171,19 +4219,19 @@
         <v>50</v>
       </c>
       <c r="H99">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I99">
         <v>223</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="K99" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4206,19 +4254,19 @@
         <v>2</v>
       </c>
       <c r="H100">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I100">
         <v>187</v>
       </c>
       <c r="J100" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K100" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="L100">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4241,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I101">
         <v>559</v>
@@ -4250,10 +4298,10 @@
         <v>22</v>
       </c>
       <c r="K101" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L101">
-        <v>2500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4276,7 +4324,7 @@
         <v>10</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I102">
         <v>259</v>
@@ -4285,10 +4333,10 @@
         <v>22</v>
       </c>
       <c r="K102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L102">
-        <v>25</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4311,7 +4359,7 @@
         <v>2</v>
       </c>
       <c r="H103">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I103">
         <v>512</v>
@@ -4320,10 +4368,10 @@
         <v>22</v>
       </c>
       <c r="K103" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L103">
-        <v>2000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4346,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I104">
         <v>956</v>
@@ -4355,10 +4403,10 @@
         <v>22</v>
       </c>
       <c r="K104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L104">
-        <v>2500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4381,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I105">
         <v>772</v>
@@ -4390,10 +4438,10 @@
         <v>22</v>
       </c>
       <c r="K105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L105">
-        <v>10000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4416,19 +4464,19 @@
         <v>300</v>
       </c>
       <c r="H106">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I106">
         <v>462</v>
       </c>
       <c r="J106" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K106" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="L106">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4451,7 +4499,7 @@
         <v>15</v>
       </c>
       <c r="H107">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I107">
         <v>396</v>
@@ -4460,10 +4508,10 @@
         <v>22</v>
       </c>
       <c r="K107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L107">
-        <v>2500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4486,7 +4534,7 @@
         <v>2</v>
       </c>
       <c r="H108">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I108">
         <v>396</v>
@@ -4498,7 +4546,7 @@
         <v>24</v>
       </c>
       <c r="L108">
-        <v>2500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4521,7 +4569,7 @@
         <v>15</v>
       </c>
       <c r="H109">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I109">
         <v>914</v>
@@ -4530,10 +4578,10 @@
         <v>22</v>
       </c>
       <c r="K109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L109">
-        <v>4500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4556,7 +4604,7 @@
         <v>2</v>
       </c>
       <c r="H110">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I110">
         <v>810</v>
@@ -4568,7 +4616,7 @@
         <v>24</v>
       </c>
       <c r="L110">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4591,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I111">
         <v>607</v>
@@ -4600,10 +4648,10 @@
         <v>22</v>
       </c>
       <c r="K111" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L111">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -4626,19 +4674,19 @@
         <v>4</v>
       </c>
       <c r="H112">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I112">
         <v>457</v>
       </c>
       <c r="J112" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K112" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="L112">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -4661,7 +4709,7 @@
         <v>2</v>
       </c>
       <c r="H113">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I113">
         <v>803</v>
@@ -4673,7 +4721,7 @@
         <v>24</v>
       </c>
       <c r="L113">
-        <v>3000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -4696,7 +4744,7 @@
         <v>30</v>
       </c>
       <c r="H114">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I114">
         <v>157</v>
@@ -4705,10 +4753,10 @@
         <v>22</v>
       </c>
       <c r="K114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L114">
-        <v>3000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -4731,7 +4779,7 @@
         <v>20</v>
       </c>
       <c r="H115">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I115">
         <v>781</v>
@@ -4743,7 +4791,7 @@
         <v>23</v>
       </c>
       <c r="L115">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -4766,7 +4814,7 @@
         <v>4</v>
       </c>
       <c r="H116">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I116">
         <v>246</v>
@@ -4778,7 +4826,7 @@
         <v>24</v>
       </c>
       <c r="L116">
-        <v>1500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -4801,7 +4849,7 @@
         <v>1000</v>
       </c>
       <c r="H117">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I117">
         <v>329</v>
@@ -4810,10 +4858,10 @@
         <v>22</v>
       </c>
       <c r="K117" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L117">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -4836,7 +4884,7 @@
         <v>6</v>
       </c>
       <c r="H118">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I118">
         <v>927</v>
@@ -4848,7 +4896,7 @@
         <v>24</v>
       </c>
       <c r="L118">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -4871,7 +4919,7 @@
         <v>4</v>
       </c>
       <c r="H119">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I119">
         <v>778</v>
@@ -4883,7 +4931,7 @@
         <v>23</v>
       </c>
       <c r="L119">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -4906,7 +4954,7 @@
         <v>2</v>
       </c>
       <c r="H120">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I120">
         <v>816</v>
@@ -4918,7 +4966,7 @@
         <v>24</v>
       </c>
       <c r="L120">
-        <v>2500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -4941,19 +4989,19 @@
         <v>60</v>
       </c>
       <c r="H121">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I121">
         <v>301</v>
       </c>
       <c r="J121" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K121" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="L121">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -4976,7 +5024,7 @@
         <v>25</v>
       </c>
       <c r="H122">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I122">
         <v>505</v>
@@ -4985,10 +5033,10 @@
         <v>22</v>
       </c>
       <c r="K122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L122">
-        <v>2000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5011,7 +5059,7 @@
         <v>5</v>
       </c>
       <c r="H123">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I123">
         <v>735</v>
@@ -5023,7 +5071,7 @@
         <v>24</v>
       </c>
       <c r="L123">
-        <v>1500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5046,7 +5094,7 @@
         <v>4</v>
       </c>
       <c r="H124">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I124">
         <v>485</v>
@@ -5055,10 +5103,10 @@
         <v>22</v>
       </c>
       <c r="K124" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L124">
-        <v>2500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -5081,7 +5129,7 @@
         <v>90</v>
       </c>
       <c r="H125">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I125">
         <v>965</v>
@@ -5093,7 +5141,7 @@
         <v>23</v>
       </c>
       <c r="L125">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5116,19 +5164,19 @@
         <v>4</v>
       </c>
       <c r="H126">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I126">
         <v>504</v>
       </c>
       <c r="J126" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K126" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="L126">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5151,7 +5199,7 @@
         <v>6</v>
       </c>
       <c r="H127">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I127">
         <v>902</v>
@@ -5163,7 +5211,7 @@
         <v>24</v>
       </c>
       <c r="L127">
-        <v>2500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5186,7 +5234,7 @@
         <v>30</v>
       </c>
       <c r="H128">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I128">
         <v>830</v>
@@ -5198,7 +5246,7 @@
         <v>24</v>
       </c>
       <c r="L128">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5221,7 +5269,7 @@
         <v>6</v>
       </c>
       <c r="H129">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I129">
         <v>424</v>
@@ -5233,7 +5281,7 @@
         <v>23</v>
       </c>
       <c r="L129">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -5256,7 +5304,7 @@
         <v>5</v>
       </c>
       <c r="H130">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I130">
         <v>481</v>
@@ -5265,10 +5313,10 @@
         <v>22</v>
       </c>
       <c r="K130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L130">
-        <v>2500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -5291,7 +5339,7 @@
         <v>6</v>
       </c>
       <c r="H131">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I131">
         <v>275</v>
@@ -5303,7 +5351,7 @@
         <v>24</v>
       </c>
       <c r="L131">
-        <v>4500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5326,7 +5374,7 @@
         <v>4</v>
       </c>
       <c r="H132">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I132">
         <v>384</v>
@@ -5335,10 +5383,10 @@
         <v>22</v>
       </c>
       <c r="K132" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L132">
-        <v>2000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -5361,19 +5409,19 @@
         <v>2000</v>
       </c>
       <c r="H133">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I133">
         <v>647</v>
       </c>
       <c r="J133" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K133" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="L133">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -5396,7 +5444,7 @@
         <v>10</v>
       </c>
       <c r="H134">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I134">
         <v>256</v>
@@ -5408,7 +5456,7 @@
         <v>24</v>
       </c>
       <c r="L134">
-        <v>2500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -5431,7 +5479,7 @@
         <v>40</v>
       </c>
       <c r="H135">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I135">
         <v>440</v>
@@ -5443,7 +5491,7 @@
         <v>24</v>
       </c>
       <c r="L135">
-        <v>3000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -5466,7 +5514,7 @@
         <v>7</v>
       </c>
       <c r="H136">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I136">
         <v>730</v>
@@ -5478,7 +5526,7 @@
         <v>23</v>
       </c>
       <c r="L136">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -5501,7 +5549,7 @@
         <v>6</v>
       </c>
       <c r="H137">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I137">
         <v>624</v>
@@ -5510,10 +5558,10 @@
         <v>22</v>
       </c>
       <c r="K137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L137">
-        <v>1500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -5536,7 +5584,7 @@
         <v>2500</v>
       </c>
       <c r="H138">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I138">
         <v>540</v>
@@ -5545,10 +5593,10 @@
         <v>22</v>
       </c>
       <c r="K138" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L138">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -5571,7 +5619,7 @@
         <v>120</v>
       </c>
       <c r="H139">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I139">
         <v>362</v>
@@ -5583,7 +5631,7 @@
         <v>24</v>
       </c>
       <c r="L139">
-        <v>2000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -5606,7 +5654,7 @@
         <v>10</v>
       </c>
       <c r="H140">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I140">
         <v>202</v>
@@ -5618,7 +5666,7 @@
         <v>23</v>
       </c>
       <c r="L140">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -5641,7 +5689,7 @@
         <v>8</v>
       </c>
       <c r="H141">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I141">
         <v>490</v>
@@ -5650,10 +5698,10 @@
         <v>22</v>
       </c>
       <c r="K141" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L141">
-        <v>2500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -5676,19 +5724,19 @@
         <v>10</v>
       </c>
       <c r="H142">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I142">
         <v>715</v>
       </c>
       <c r="J142" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="K142" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="L142">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284ADF41-F4B2-4478-B9DD-BECA8AB351CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F6CFA0-54E4-4BD5-9C26-736C11B2C35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="19245" yWindow="2550" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="94">
   <si>
     <t>groupId|Int</t>
   </si>
@@ -176,12 +176,6 @@
     <t>Pet_0024</t>
   </si>
   <si>
-    <t>Spell_0003</t>
-  </si>
-  <si>
-    <t>Pet_0002</t>
-  </si>
-  <si>
     <t>QuestDesc_21</t>
   </si>
   <si>
@@ -197,16 +191,10 @@
     <t>Equip020001</t>
   </si>
   <si>
-    <t>Equip010001</t>
-  </si>
-  <si>
     <t>Equip020101</t>
   </si>
   <si>
     <t>Equip000101</t>
-  </si>
-  <si>
-    <t>Equip030101</t>
   </si>
   <si>
     <t>QuestDesc_12</t>
@@ -279,6 +267,60 @@
   </si>
   <si>
     <t>Pet_0009</t>
+  </si>
+  <si>
+    <t>Pet_0020</t>
+  </si>
+  <si>
+    <t>Pet_0004</t>
+  </si>
+  <si>
+    <t>Pet_0033</t>
+  </si>
+  <si>
+    <t>Equip018003</t>
+  </si>
+  <si>
+    <t>Equip028002</t>
+  </si>
+  <si>
+    <t>Equip021001</t>
+  </si>
+  <si>
+    <t>Pet_0025</t>
+  </si>
+  <si>
+    <t>Equip035002</t>
+  </si>
+  <si>
+    <t>Spell_0011</t>
+  </si>
+  <si>
+    <t>Pet_0022</t>
+  </si>
+  <si>
+    <t>Equip034003</t>
+  </si>
+  <si>
+    <t>Spell_0016</t>
+  </si>
+  <si>
+    <t>Pet_0027</t>
+  </si>
+  <si>
+    <t>Equip036002</t>
+  </si>
+  <si>
+    <t>Pet_0019</t>
+  </si>
+  <si>
+    <t>Equip032102</t>
+  </si>
+  <si>
+    <t>Equip035003</t>
+  </si>
+  <si>
+    <t>Equip034102</t>
   </si>
 </sst>
 </file>
@@ -642,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A4F608-CA96-4AFD-BC88-2CD8B375A5FD}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -746,6 +788,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>864000</v>
+      </c>
+      <c r="C5">
+        <v>1209600</v>
+      </c>
+      <c r="D5">
+        <v>2023</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>2023</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -754,9 +825,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -818,7 +889,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -853,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -888,7 +959,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -903,7 +974,7 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -958,7 +1029,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -993,7 +1064,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1028,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F8">
         <v>40</v>
@@ -1063,7 +1134,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F9">
         <v>40</v>
@@ -1078,7 +1149,7 @@
         <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1098,7 +1169,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1133,7 +1204,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1148,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -1168,7 +1239,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>30</v>
@@ -1273,7 +1344,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -1308,7 +1379,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -1343,7 +1414,7 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1358,7 +1429,7 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L17">
         <v>3</v>
@@ -1378,7 +1449,7 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1393,7 +1464,7 @@
         <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1448,7 +1519,7 @@
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1483,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F21">
         <v>60</v>
@@ -1518,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>60</v>
@@ -1553,7 +1624,7 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -1568,7 +1639,7 @@
         <v>41</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1588,7 +1659,7 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F24">
         <v>60</v>
@@ -1708,7 +1779,7 @@
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -1728,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F28">
         <v>70</v>
@@ -1763,7 +1834,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F29">
         <v>8</v>
@@ -1798,7 +1869,7 @@
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -1833,7 +1904,7 @@
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -1848,7 +1919,7 @@
         <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -1883,7 +1954,7 @@
         <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -1938,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <v>80</v>
@@ -1973,7 +2044,7 @@
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F35">
         <v>80</v>
@@ -2058,7 +2129,7 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L37">
         <v>5</v>
@@ -2078,7 +2149,7 @@
         <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -2093,7 +2164,7 @@
         <v>41</v>
       </c>
       <c r="K38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2148,7 +2219,7 @@
         <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -2183,7 +2254,7 @@
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F41">
         <v>100</v>
@@ -2218,7 +2289,7 @@
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -2233,7 +2304,7 @@
         <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2253,7 +2324,7 @@
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -2268,7 +2339,7 @@
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L43">
         <v>5</v>
@@ -2323,7 +2394,7 @@
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F45">
         <v>120</v>
@@ -2373,7 +2444,7 @@
         <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L46">
         <v>5</v>
@@ -2393,7 +2464,7 @@
         <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47">
         <v>15</v>
@@ -2428,7 +2499,7 @@
         <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F48">
         <v>12</v>
@@ -2603,7 +2674,7 @@
         <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F53">
         <v>15</v>
@@ -2618,7 +2689,7 @@
         <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L53">
         <v>5</v>
@@ -2638,7 +2709,7 @@
         <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2653,7 +2724,7 @@
         <v>41</v>
       </c>
       <c r="K54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -2828,7 +2899,7 @@
         <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L59">
         <v>3</v>
@@ -2848,7 +2919,7 @@
         <v>27</v>
       </c>
       <c r="E60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -2883,7 +2954,7 @@
         <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -2898,7 +2969,7 @@
         <v>41</v>
       </c>
       <c r="K61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -3003,7 +3074,7 @@
         <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L64">
         <v>5</v>
@@ -3058,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -3073,7 +3144,7 @@
         <v>41</v>
       </c>
       <c r="K66" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -3093,7 +3164,7 @@
         <v>30</v>
       </c>
       <c r="E67" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F67">
         <v>4</v>
@@ -3178,7 +3249,7 @@
         <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L69">
         <v>5</v>
@@ -3303,7 +3374,7 @@
         <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F73">
         <v>60</v>
@@ -3338,7 +3409,7 @@
         <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -3353,7 +3424,7 @@
         <v>41</v>
       </c>
       <c r="K74" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -3493,7 +3564,7 @@
         <v>41</v>
       </c>
       <c r="K78" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -3513,7 +3584,7 @@
         <v>26</v>
       </c>
       <c r="E79" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F79">
         <v>80</v>
@@ -3548,7 +3619,7 @@
         <v>30</v>
       </c>
       <c r="E80" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -3563,7 +3634,7 @@
         <v>22</v>
       </c>
       <c r="K80" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L80">
         <v>5</v>
@@ -3688,7 +3759,7 @@
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F84">
         <v>100</v>
@@ -3703,7 +3774,7 @@
         <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L84">
         <v>5</v>
@@ -3723,7 +3794,7 @@
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -3758,7 +3829,7 @@
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -3773,7 +3844,7 @@
         <v>41</v>
       </c>
       <c r="K86" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -3793,7 +3864,7 @@
         <v>30</v>
       </c>
       <c r="E87" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -3948,7 +4019,7 @@
         <v>41</v>
       </c>
       <c r="K91" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -4003,7 +4074,7 @@
         <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F93">
         <v>120</v>
@@ -4038,7 +4109,7 @@
         <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -4053,7 +4124,7 @@
         <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L94">
         <v>5</v>
@@ -4073,7 +4144,7 @@
         <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F95">
         <v>12</v>
@@ -4088,7 +4159,7 @@
         <v>22</v>
       </c>
       <c r="K95" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L95">
         <v>5</v>
@@ -4248,7 +4319,7 @@
         <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -4263,7 +4334,7 @@
         <v>41</v>
       </c>
       <c r="K100" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -4283,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="E101" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -4298,7 +4369,7 @@
         <v>22</v>
       </c>
       <c r="K101" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L101">
         <v>5</v>
@@ -4368,7 +4439,7 @@
         <v>22</v>
       </c>
       <c r="K103" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L103">
         <v>5</v>
@@ -4473,7 +4544,7 @@
         <v>41</v>
       </c>
       <c r="K106" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -4493,7 +4564,7 @@
         <v>26</v>
       </c>
       <c r="E107" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F107">
         <v>15</v>
@@ -4528,7 +4599,7 @@
         <v>29</v>
       </c>
       <c r="E108" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -4648,7 +4719,7 @@
         <v>22</v>
       </c>
       <c r="K111" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L111">
         <v>5</v>
@@ -4668,7 +4739,7 @@
         <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F112">
         <v>4</v>
@@ -4683,7 +4754,7 @@
         <v>41</v>
       </c>
       <c r="K112" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -4703,7 +4774,7 @@
         <v>28</v>
       </c>
       <c r="E113" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -4738,7 +4809,7 @@
         <v>26</v>
       </c>
       <c r="E114" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F114">
         <v>30</v>
@@ -4858,7 +4929,7 @@
         <v>22</v>
       </c>
       <c r="K117" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L117">
         <v>5</v>
@@ -4878,7 +4949,7 @@
         <v>27</v>
       </c>
       <c r="E118" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F118">
         <v>6</v>
@@ -4913,7 +4984,7 @@
         <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F119">
         <v>4</v>
@@ -4983,7 +5054,7 @@
         <v>26</v>
       </c>
       <c r="E121" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F121">
         <v>60</v>
@@ -4998,7 +5069,7 @@
         <v>41</v>
       </c>
       <c r="K121" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -5103,7 +5174,7 @@
         <v>22</v>
       </c>
       <c r="K124" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L124">
         <v>5</v>
@@ -5123,7 +5194,7 @@
         <v>26</v>
       </c>
       <c r="E125" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F125">
         <v>90</v>
@@ -5158,7 +5229,7 @@
         <v>28</v>
       </c>
       <c r="E126" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F126">
         <v>4</v>
@@ -5173,7 +5244,7 @@
         <v>41</v>
       </c>
       <c r="K126" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -5193,7 +5264,7 @@
         <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F127">
         <v>6</v>
@@ -5383,7 +5454,7 @@
         <v>22</v>
       </c>
       <c r="K132" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L132">
         <v>5</v>
@@ -5418,7 +5489,7 @@
         <v>41</v>
       </c>
       <c r="K133" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L133">
         <v>1</v>
@@ -5438,7 +5509,7 @@
         <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F134">
         <v>10</v>
@@ -5593,7 +5664,7 @@
         <v>22</v>
       </c>
       <c r="K138" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L138">
         <v>5</v>
@@ -5613,7 +5684,7 @@
         <v>26</v>
       </c>
       <c r="E139" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F139">
         <v>120</v>
@@ -5648,7 +5719,7 @@
         <v>27</v>
       </c>
       <c r="E140" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F140">
         <v>10</v>
@@ -5683,7 +5754,7 @@
         <v>29</v>
       </c>
       <c r="E141" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F141">
         <v>8</v>
@@ -5698,7 +5769,7 @@
         <v>22</v>
       </c>
       <c r="K141" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L141">
         <v>5</v>
@@ -5718,7 +5789,7 @@
         <v>30</v>
       </c>
       <c r="E142" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F142">
         <v>10</v>
@@ -5733,10 +5804,1655 @@
         <v>41</v>
       </c>
       <c r="K142" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L142">
         <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>4</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>11</v>
+      </c>
+      <c r="E143" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143">
+        <v>4</v>
+      </c>
+      <c r="H143">
+        <v>20</v>
+      </c>
+      <c r="I143">
+        <v>235</v>
+      </c>
+      <c r="J143" t="s">
+        <v>22</v>
+      </c>
+      <c r="K143" t="s">
+        <v>24</v>
+      </c>
+      <c r="L143">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>4</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>15</v>
+      </c>
+      <c r="I144">
+        <v>370</v>
+      </c>
+      <c r="J144" t="s">
+        <v>22</v>
+      </c>
+      <c r="K144" t="s">
+        <v>23</v>
+      </c>
+      <c r="L144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>4</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>20</v>
+      </c>
+      <c r="E145" t="s">
+        <v>30</v>
+      </c>
+      <c r="F145">
+        <v>60</v>
+      </c>
+      <c r="H145">
+        <v>20</v>
+      </c>
+      <c r="I145">
+        <v>593</v>
+      </c>
+      <c r="J145" t="s">
+        <v>22</v>
+      </c>
+      <c r="K145" t="s">
+        <v>24</v>
+      </c>
+      <c r="L145">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>4</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>27</v>
+      </c>
+      <c r="E146" t="s">
+        <v>56</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <v>15</v>
+      </c>
+      <c r="I146">
+        <v>223</v>
+      </c>
+      <c r="J146" t="s">
+        <v>22</v>
+      </c>
+      <c r="K146" t="s">
+        <v>59</v>
+      </c>
+      <c r="L146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>4</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>28</v>
+      </c>
+      <c r="E147" t="s">
+        <v>58</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="H147">
+        <v>15</v>
+      </c>
+      <c r="I147">
+        <v>187</v>
+      </c>
+      <c r="J147" t="s">
+        <v>41</v>
+      </c>
+      <c r="K147" t="s">
+        <v>76</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>4</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>29</v>
+      </c>
+      <c r="E148" t="s">
+        <v>57</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="H148">
+        <v>20</v>
+      </c>
+      <c r="I148">
+        <v>559</v>
+      </c>
+      <c r="J148" t="s">
+        <v>22</v>
+      </c>
+      <c r="K148" t="s">
+        <v>23</v>
+      </c>
+      <c r="L148">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>4</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>11</v>
+      </c>
+      <c r="E149" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149">
+        <v>8</v>
+      </c>
+      <c r="H149">
+        <v>20</v>
+      </c>
+      <c r="I149">
+        <v>259</v>
+      </c>
+      <c r="J149" t="s">
+        <v>22</v>
+      </c>
+      <c r="K149" t="s">
+        <v>24</v>
+      </c>
+      <c r="L149">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>4</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
+        <v>29</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="H150">
+        <v>15</v>
+      </c>
+      <c r="I150">
+        <v>512</v>
+      </c>
+      <c r="J150" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" t="s">
+        <v>23</v>
+      </c>
+      <c r="L150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>4</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>16</v>
+      </c>
+      <c r="E151" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>15</v>
+      </c>
+      <c r="I151">
+        <v>956</v>
+      </c>
+      <c r="J151" t="s">
+        <v>22</v>
+      </c>
+      <c r="K151" t="s">
+        <v>23</v>
+      </c>
+      <c r="L151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>4</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>27</v>
+      </c>
+      <c r="E152" t="s">
+        <v>56</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="H152">
+        <v>15</v>
+      </c>
+      <c r="I152">
+        <v>772</v>
+      </c>
+      <c r="J152" t="s">
+        <v>22</v>
+      </c>
+      <c r="K152" t="s">
+        <v>59</v>
+      </c>
+      <c r="L152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>4</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>5</v>
+      </c>
+      <c r="D153">
+        <v>28</v>
+      </c>
+      <c r="E153" t="s">
+        <v>58</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="H153">
+        <v>15</v>
+      </c>
+      <c r="I153">
+        <v>462</v>
+      </c>
+      <c r="J153" t="s">
+        <v>41</v>
+      </c>
+      <c r="K153" t="s">
+        <v>77</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>29</v>
+      </c>
+      <c r="E154" t="s">
+        <v>57</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="H154">
+        <v>15</v>
+      </c>
+      <c r="I154">
+        <v>396</v>
+      </c>
+      <c r="J154" t="s">
+        <v>22</v>
+      </c>
+      <c r="K154" t="s">
+        <v>24</v>
+      </c>
+      <c r="L154">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>7</v>
+      </c>
+      <c r="D155">
+        <v>30</v>
+      </c>
+      <c r="E155" t="s">
+        <v>54</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="H155">
+        <v>20</v>
+      </c>
+      <c r="I155">
+        <v>396</v>
+      </c>
+      <c r="J155" t="s">
+        <v>22</v>
+      </c>
+      <c r="K155" t="s">
+        <v>23</v>
+      </c>
+      <c r="L155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>4</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>11</v>
+      </c>
+      <c r="E156" t="s">
+        <v>21</v>
+      </c>
+      <c r="F156">
+        <v>12</v>
+      </c>
+      <c r="H156">
+        <v>15</v>
+      </c>
+      <c r="I156">
+        <v>914</v>
+      </c>
+      <c r="J156" t="s">
+        <v>22</v>
+      </c>
+      <c r="K156" t="s">
+        <v>24</v>
+      </c>
+      <c r="L156">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>4</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>14</v>
+      </c>
+      <c r="E157" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="H157">
+        <v>15</v>
+      </c>
+      <c r="I157">
+        <v>810</v>
+      </c>
+      <c r="J157" t="s">
+        <v>22</v>
+      </c>
+      <c r="K157" t="s">
+        <v>23</v>
+      </c>
+      <c r="L157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>20</v>
+      </c>
+      <c r="E158" t="s">
+        <v>30</v>
+      </c>
+      <c r="F158">
+        <v>300</v>
+      </c>
+      <c r="H158">
+        <v>15</v>
+      </c>
+      <c r="I158">
+        <v>607</v>
+      </c>
+      <c r="J158" t="s">
+        <v>22</v>
+      </c>
+      <c r="K158" t="s">
+        <v>24</v>
+      </c>
+      <c r="L158">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>4</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>27</v>
+      </c>
+      <c r="E159" t="s">
+        <v>56</v>
+      </c>
+      <c r="F159">
+        <v>6</v>
+      </c>
+      <c r="H159">
+        <v>15</v>
+      </c>
+      <c r="I159">
+        <v>457</v>
+      </c>
+      <c r="J159" t="s">
+        <v>41</v>
+      </c>
+      <c r="K159" t="s">
+        <v>78</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160">
+        <v>28</v>
+      </c>
+      <c r="E160" t="s">
+        <v>58</v>
+      </c>
+      <c r="F160">
+        <v>6</v>
+      </c>
+      <c r="H160">
+        <v>15</v>
+      </c>
+      <c r="I160">
+        <v>803</v>
+      </c>
+      <c r="J160" t="s">
+        <v>22</v>
+      </c>
+      <c r="K160" t="s">
+        <v>23</v>
+      </c>
+      <c r="L160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>29</v>
+      </c>
+      <c r="E161" t="s">
+        <v>57</v>
+      </c>
+      <c r="F161">
+        <v>6</v>
+      </c>
+      <c r="H161">
+        <v>20</v>
+      </c>
+      <c r="I161">
+        <v>157</v>
+      </c>
+      <c r="J161" t="s">
+        <v>22</v>
+      </c>
+      <c r="K161" t="s">
+        <v>59</v>
+      </c>
+      <c r="L161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>4</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>11</v>
+      </c>
+      <c r="E162" t="s">
+        <v>21</v>
+      </c>
+      <c r="F162">
+        <v>16</v>
+      </c>
+      <c r="H162">
+        <v>15</v>
+      </c>
+      <c r="I162">
+        <v>781</v>
+      </c>
+      <c r="J162" t="s">
+        <v>22</v>
+      </c>
+      <c r="K162" t="s">
+        <v>23</v>
+      </c>
+      <c r="L162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>4</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163">
+        <v>4</v>
+      </c>
+      <c r="H163">
+        <v>20</v>
+      </c>
+      <c r="I163">
+        <v>246</v>
+      </c>
+      <c r="J163" t="s">
+        <v>22</v>
+      </c>
+      <c r="K163" t="s">
+        <v>24</v>
+      </c>
+      <c r="L163">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>17</v>
+      </c>
+      <c r="E164" t="s">
+        <v>36</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="H164">
+        <v>20</v>
+      </c>
+      <c r="I164">
+        <v>329</v>
+      </c>
+      <c r="J164" t="s">
+        <v>22</v>
+      </c>
+      <c r="K164" t="s">
+        <v>23</v>
+      </c>
+      <c r="L164">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+      <c r="D165">
+        <v>27</v>
+      </c>
+      <c r="E165" t="s">
+        <v>56</v>
+      </c>
+      <c r="F165">
+        <v>8</v>
+      </c>
+      <c r="H165">
+        <v>15</v>
+      </c>
+      <c r="I165">
+        <v>927</v>
+      </c>
+      <c r="J165" t="s">
+        <v>41</v>
+      </c>
+      <c r="K165" t="s">
+        <v>79</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+      <c r="D166">
+        <v>28</v>
+      </c>
+      <c r="E166" t="s">
+        <v>58</v>
+      </c>
+      <c r="F166">
+        <v>8</v>
+      </c>
+      <c r="H166">
+        <v>15</v>
+      </c>
+      <c r="I166">
+        <v>778</v>
+      </c>
+      <c r="J166" t="s">
+        <v>22</v>
+      </c>
+      <c r="K166" t="s">
+        <v>24</v>
+      </c>
+      <c r="L166">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167">
+        <v>29</v>
+      </c>
+      <c r="E167" t="s">
+        <v>57</v>
+      </c>
+      <c r="F167">
+        <v>8</v>
+      </c>
+      <c r="H167">
+        <v>15</v>
+      </c>
+      <c r="I167">
+        <v>816</v>
+      </c>
+      <c r="J167" t="s">
+        <v>22</v>
+      </c>
+      <c r="K167" t="s">
+        <v>59</v>
+      </c>
+      <c r="L167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>7</v>
+      </c>
+      <c r="D168">
+        <v>26</v>
+      </c>
+      <c r="E168" t="s">
+        <v>55</v>
+      </c>
+      <c r="F168">
+        <v>70</v>
+      </c>
+      <c r="H168">
+        <v>15</v>
+      </c>
+      <c r="I168">
+        <v>301</v>
+      </c>
+      <c r="J168" t="s">
+        <v>22</v>
+      </c>
+      <c r="K168" t="s">
+        <v>24</v>
+      </c>
+      <c r="L168">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>11</v>
+      </c>
+      <c r="E169" t="s">
+        <v>21</v>
+      </c>
+      <c r="F169">
+        <v>20</v>
+      </c>
+      <c r="H169">
+        <v>15</v>
+      </c>
+      <c r="I169">
+        <v>505</v>
+      </c>
+      <c r="J169" t="s">
+        <v>22</v>
+      </c>
+      <c r="K169" t="s">
+        <v>24</v>
+      </c>
+      <c r="L169">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170">
+        <v>5</v>
+      </c>
+      <c r="H170">
+        <v>20</v>
+      </c>
+      <c r="I170">
+        <v>735</v>
+      </c>
+      <c r="J170" t="s">
+        <v>22</v>
+      </c>
+      <c r="K170" t="s">
+        <v>24</v>
+      </c>
+      <c r="L170">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>16</v>
+      </c>
+      <c r="E171" t="s">
+        <v>31</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
+      </c>
+      <c r="H171">
+        <v>15</v>
+      </c>
+      <c r="I171">
+        <v>485</v>
+      </c>
+      <c r="J171" t="s">
+        <v>41</v>
+      </c>
+      <c r="K171" t="s">
+        <v>80</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>4</v>
+      </c>
+      <c r="D172">
+        <v>27</v>
+      </c>
+      <c r="E172" t="s">
+        <v>56</v>
+      </c>
+      <c r="F172">
+        <v>10</v>
+      </c>
+      <c r="H172">
+        <v>15</v>
+      </c>
+      <c r="I172">
+        <v>965</v>
+      </c>
+      <c r="J172" t="s">
+        <v>22</v>
+      </c>
+      <c r="K172" t="s">
+        <v>23</v>
+      </c>
+      <c r="L172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173">
+        <v>28</v>
+      </c>
+      <c r="E173" t="s">
+        <v>58</v>
+      </c>
+      <c r="F173">
+        <v>10</v>
+      </c>
+      <c r="H173">
+        <v>15</v>
+      </c>
+      <c r="I173">
+        <v>504</v>
+      </c>
+      <c r="J173" t="s">
+        <v>22</v>
+      </c>
+      <c r="K173" t="s">
+        <v>59</v>
+      </c>
+      <c r="L173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>6</v>
+      </c>
+      <c r="D174">
+        <v>29</v>
+      </c>
+      <c r="E174" t="s">
+        <v>57</v>
+      </c>
+      <c r="F174">
+        <v>10</v>
+      </c>
+      <c r="H174">
+        <v>15</v>
+      </c>
+      <c r="I174">
+        <v>902</v>
+      </c>
+      <c r="J174" t="s">
+        <v>22</v>
+      </c>
+      <c r="K174" t="s">
+        <v>23</v>
+      </c>
+      <c r="L174">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>11</v>
+      </c>
+      <c r="E175" t="s">
+        <v>21</v>
+      </c>
+      <c r="F175">
+        <v>24</v>
+      </c>
+      <c r="H175">
+        <v>15</v>
+      </c>
+      <c r="I175">
+        <v>830</v>
+      </c>
+      <c r="J175" t="s">
+        <v>22</v>
+      </c>
+      <c r="K175" t="s">
+        <v>24</v>
+      </c>
+      <c r="L175">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>4</v>
+      </c>
+      <c r="B176">
+        <v>6</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+      <c r="D176">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s">
+        <v>29</v>
+      </c>
+      <c r="F176">
+        <v>6</v>
+      </c>
+      <c r="H176">
+        <v>20</v>
+      </c>
+      <c r="I176">
+        <v>424</v>
+      </c>
+      <c r="J176" t="s">
+        <v>22</v>
+      </c>
+      <c r="K176" t="s">
+        <v>24</v>
+      </c>
+      <c r="L176">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177">
+        <v>6</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>20</v>
+      </c>
+      <c r="E177" t="s">
+        <v>30</v>
+      </c>
+      <c r="F177">
+        <v>600</v>
+      </c>
+      <c r="H177">
+        <v>15</v>
+      </c>
+      <c r="I177">
+        <v>481</v>
+      </c>
+      <c r="J177" t="s">
+        <v>22</v>
+      </c>
+      <c r="K177" t="s">
+        <v>59</v>
+      </c>
+      <c r="L177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>4</v>
+      </c>
+      <c r="B178">
+        <v>6</v>
+      </c>
+      <c r="C178">
+        <v>4</v>
+      </c>
+      <c r="D178">
+        <v>27</v>
+      </c>
+      <c r="E178" t="s">
+        <v>56</v>
+      </c>
+      <c r="F178">
+        <v>12</v>
+      </c>
+      <c r="H178">
+        <v>15</v>
+      </c>
+      <c r="I178">
+        <v>275</v>
+      </c>
+      <c r="J178" t="s">
+        <v>22</v>
+      </c>
+      <c r="K178" t="s">
+        <v>24</v>
+      </c>
+      <c r="L178">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
+      <c r="D179">
+        <v>28</v>
+      </c>
+      <c r="E179" t="s">
+        <v>58</v>
+      </c>
+      <c r="F179">
+        <v>12</v>
+      </c>
+      <c r="H179">
+        <v>15</v>
+      </c>
+      <c r="I179">
+        <v>384</v>
+      </c>
+      <c r="J179" t="s">
+        <v>22</v>
+      </c>
+      <c r="K179" t="s">
+        <v>23</v>
+      </c>
+      <c r="L179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>29</v>
+      </c>
+      <c r="E180" t="s">
+        <v>57</v>
+      </c>
+      <c r="F180">
+        <v>12</v>
+      </c>
+      <c r="H180">
+        <v>15</v>
+      </c>
+      <c r="I180">
+        <v>647</v>
+      </c>
+      <c r="J180" t="s">
+        <v>22</v>
+      </c>
+      <c r="K180" t="s">
+        <v>23</v>
+      </c>
+      <c r="L180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181">
+        <v>6</v>
+      </c>
+      <c r="C181">
+        <v>7</v>
+      </c>
+      <c r="D181">
+        <v>30</v>
+      </c>
+      <c r="E181" t="s">
+        <v>54</v>
+      </c>
+      <c r="F181">
+        <v>10</v>
+      </c>
+      <c r="H181">
+        <v>20</v>
+      </c>
+      <c r="I181">
+        <v>256</v>
+      </c>
+      <c r="J181" t="s">
+        <v>41</v>
+      </c>
+      <c r="K181" t="s">
+        <v>72</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182">
+        <v>7</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>11</v>
+      </c>
+      <c r="E182" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182">
+        <v>30</v>
+      </c>
+      <c r="H182">
+        <v>15</v>
+      </c>
+      <c r="I182">
+        <v>440</v>
+      </c>
+      <c r="J182" t="s">
+        <v>22</v>
+      </c>
+      <c r="K182" t="s">
+        <v>23</v>
+      </c>
+      <c r="L182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183">
+        <v>7</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>14</v>
+      </c>
+      <c r="E183" t="s">
+        <v>29</v>
+      </c>
+      <c r="F183">
+        <v>7</v>
+      </c>
+      <c r="H183">
+        <v>20</v>
+      </c>
+      <c r="I183">
+        <v>730</v>
+      </c>
+      <c r="J183" t="s">
+        <v>22</v>
+      </c>
+      <c r="K183" t="s">
+        <v>24</v>
+      </c>
+      <c r="L183">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184">
+        <v>7</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>19</v>
+      </c>
+      <c r="E184" t="s">
+        <v>38</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>15</v>
+      </c>
+      <c r="I184">
+        <v>624</v>
+      </c>
+      <c r="J184" t="s">
+        <v>22</v>
+      </c>
+      <c r="K184" t="s">
+        <v>59</v>
+      </c>
+      <c r="L184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>18</v>
+      </c>
+      <c r="E185" t="s">
+        <v>37</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>20</v>
+      </c>
+      <c r="I185">
+        <v>540</v>
+      </c>
+      <c r="J185" t="s">
+        <v>22</v>
+      </c>
+      <c r="K185" t="s">
+        <v>23</v>
+      </c>
+      <c r="L185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>7</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186">
+        <v>16</v>
+      </c>
+      <c r="E186" t="s">
+        <v>31</v>
+      </c>
+      <c r="F186">
+        <v>6</v>
+      </c>
+      <c r="H186">
+        <v>15</v>
+      </c>
+      <c r="I186">
+        <v>362</v>
+      </c>
+      <c r="J186" t="s">
+        <v>22</v>
+      </c>
+      <c r="K186" t="s">
+        <v>24</v>
+      </c>
+      <c r="L186">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>20</v>
+      </c>
+      <c r="E187" t="s">
+        <v>30</v>
+      </c>
+      <c r="F187">
+        <v>900</v>
+      </c>
+      <c r="H187">
+        <v>15</v>
+      </c>
+      <c r="I187">
+        <v>202</v>
+      </c>
+      <c r="J187" t="s">
+        <v>22</v>
+      </c>
+      <c r="K187" t="s">
+        <v>59</v>
+      </c>
+      <c r="L187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <v>7</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+      <c r="D188">
+        <v>26</v>
+      </c>
+      <c r="E188" t="s">
+        <v>55</v>
+      </c>
+      <c r="F188">
+        <v>120</v>
+      </c>
+      <c r="H188">
+        <v>15</v>
+      </c>
+      <c r="I188">
+        <v>490</v>
+      </c>
+      <c r="J188" t="s">
+        <v>41</v>
+      </c>
+      <c r="K188" t="s">
+        <v>81</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="B189">
+        <v>7</v>
+      </c>
+      <c r="C189">
+        <v>8</v>
+      </c>
+      <c r="D189">
+        <v>30</v>
+      </c>
+      <c r="E189" t="s">
+        <v>54</v>
+      </c>
+      <c r="F189">
+        <v>12</v>
+      </c>
+      <c r="H189">
+        <v>20</v>
+      </c>
+      <c r="I189">
+        <v>715</v>
+      </c>
+      <c r="J189" t="s">
+        <v>22</v>
+      </c>
+      <c r="K189" t="s">
+        <v>23</v>
+      </c>
+      <c r="L189">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5747,9 +7463,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F5A8A-CC2C-4E3D-998F-03E9F0CD83AA}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5790,10 +7506,10 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5810,10 +7526,10 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>1700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5830,7 +7546,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -5853,7 +7569,7 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>2500</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5867,13 +7583,13 @@
         <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5887,13 +7603,13 @@
         <v>672</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5907,13 +7623,13 @@
         <v>930</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5930,7 +7646,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -5953,7 +7669,7 @@
         <v>23</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -5970,10 +7686,10 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F11">
-        <v>1900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5987,13 +7703,13 @@
         <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6007,13 +7723,13 @@
         <v>585</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="F13">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6030,10 +7746,10 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F14">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -6050,7 +7766,7 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -6067,13 +7783,13 @@
         <v>943</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6090,7 +7806,7 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -6110,10 +7826,10 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6130,10 +7846,10 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F19">
-        <v>1500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6147,13 +7863,13 @@
         <v>380</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -6167,13 +7883,13 @@
         <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F21">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6190,10 +7906,10 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6210,7 +7926,7 @@
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -6227,13 +7943,13 @@
         <v>542</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -6250,9 +7966,169 @@
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>956</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+      <c r="C27">
+        <v>306</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>300</v>
+      </c>
+      <c r="C28">
+        <v>380</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>400</v>
+      </c>
+      <c r="C29">
+        <v>199</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>500</v>
+      </c>
+      <c r="C30">
+        <v>197</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>700</v>
+      </c>
+      <c r="C31">
+        <v>976</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1000</v>
+      </c>
+      <c r="C32">
+        <v>542</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>1500</v>
+      </c>
+      <c r="C33">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33">
         <v>1</v>
       </c>
     </row>
@@ -6990,7 +8866,7 @@
         <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -7172,7 +9048,7 @@
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -7380,7 +9256,7 @@
         <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H19">
         <v>1</v>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F6CFA0-54E4-4BD5-9C26-736C11B2C35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617582F9-4874-4A45-BF1C-25EB919415AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19245" yWindow="2550" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -7465,7 +7465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F5A8A-CC2C-4E3D-998F-03E9F0CD83AA}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8142,7 +8142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A90C97E-132D-4750-ABEC-292E39282DC0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8210,7 +8210,7 @@
         <v>23</v>
       </c>
       <c r="I2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -8245,7 +8245,7 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -8280,7 +8280,7 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="J4">
         <v>10</v>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617582F9-4874-4A45-BF1C-25EB919415AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B3F15C-E93A-4606-9418-18779674BBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="117">
   <si>
     <t>groupId|Int</t>
   </si>
@@ -167,12 +167,6 @@
     <t>it</t>
   </si>
   <si>
-    <t>Spell_0001</t>
-  </si>
-  <si>
-    <t>Pet_0001</t>
-  </si>
-  <si>
     <t>Pet_0024</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
   </si>
   <si>
     <t>Equip020101</t>
-  </si>
-  <si>
-    <t>Equip000101</t>
   </si>
   <si>
     <t>QuestDesc_12</t>
@@ -321,6 +312,84 @@
   </si>
   <si>
     <t>Equip034102</t>
+  </si>
+  <si>
+    <t>Equip030101</t>
+  </si>
+  <si>
+    <t>Equip032101</t>
+  </si>
+  <si>
+    <t>Equip037101</t>
+  </si>
+  <si>
+    <t>Equip031002</t>
+  </si>
+  <si>
+    <t>Equip033003</t>
+  </si>
+  <si>
+    <t>Equip035001</t>
+  </si>
+  <si>
+    <t>Equip038002</t>
+  </si>
+  <si>
+    <t>Pet_0007</t>
+  </si>
+  <si>
+    <t>Pet_0015</t>
+  </si>
+  <si>
+    <t>Spell_0012</t>
+  </si>
+  <si>
+    <t>Equip031102</t>
+  </si>
+  <si>
+    <t>Equip033101</t>
+  </si>
+  <si>
+    <t>Equip036102</t>
+  </si>
+  <si>
+    <t>Equip038102</t>
+  </si>
+  <si>
+    <t>Equip032003</t>
+  </si>
+  <si>
+    <t>Equip034002</t>
+  </si>
+  <si>
+    <t>Equip037001</t>
+  </si>
+  <si>
+    <t>Pet_0017</t>
+  </si>
+  <si>
+    <t>Pet_0005</t>
+  </si>
+  <si>
+    <t>Equip030102</t>
+  </si>
+  <si>
+    <t>Equip033102</t>
+  </si>
+  <si>
+    <t>Equip035101</t>
+  </si>
+  <si>
+    <t>Equip037102</t>
+  </si>
+  <si>
+    <t>Equip030001</t>
+  </si>
+  <si>
+    <t>Equip032002</t>
+  </si>
+  <si>
+    <t>Equip038001</t>
   </si>
 </sst>
 </file>
@@ -889,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -924,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -959,7 +1028,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -974,7 +1043,7 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -1029,7 +1098,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1064,7 +1133,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1099,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>40</v>
@@ -1134,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>40</v>
@@ -1149,7 +1218,7 @@
         <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1169,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1204,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1219,7 +1288,7 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -1239,7 +1308,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12">
         <v>30</v>
@@ -1344,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -1379,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -1414,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1429,7 +1498,7 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L17">
         <v>3</v>
@@ -1449,7 +1518,7 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1464,7 +1533,7 @@
         <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1519,7 +1588,7 @@
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1554,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>60</v>
@@ -1589,7 +1658,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>60</v>
@@ -1624,7 +1693,7 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -1639,7 +1708,7 @@
         <v>41</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1659,7 +1728,7 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F24">
         <v>60</v>
@@ -1779,7 +1848,7 @@
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -1799,7 +1868,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>70</v>
@@ -1834,7 +1903,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F29">
         <v>8</v>
@@ -1869,7 +1938,7 @@
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -1904,7 +1973,7 @@
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -1919,7 +1988,7 @@
         <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -1954,7 +2023,7 @@
         <v>41</v>
       </c>
       <c r="K32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2009,7 +2078,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F34">
         <v>80</v>
@@ -2044,7 +2113,7 @@
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F35">
         <v>80</v>
@@ -2129,7 +2198,7 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L37">
         <v>5</v>
@@ -2149,7 +2218,7 @@
         <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -2164,7 +2233,7 @@
         <v>41</v>
       </c>
       <c r="K38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2219,7 +2288,7 @@
         <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -2254,7 +2323,7 @@
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F41">
         <v>100</v>
@@ -2289,7 +2358,7 @@
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -2304,7 +2373,7 @@
         <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2324,7 +2393,7 @@
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -2339,7 +2408,7 @@
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L43">
         <v>5</v>
@@ -2394,7 +2463,7 @@
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F45">
         <v>120</v>
@@ -2444,7 +2513,7 @@
         <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L46">
         <v>5</v>
@@ -2464,7 +2533,7 @@
         <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F47">
         <v>15</v>
@@ -2499,7 +2568,7 @@
         <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F48">
         <v>12</v>
@@ -2674,7 +2743,7 @@
         <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F53">
         <v>15</v>
@@ -2689,7 +2758,7 @@
         <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L53">
         <v>5</v>
@@ -2709,7 +2778,7 @@
         <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2724,7 +2793,7 @@
         <v>41</v>
       </c>
       <c r="K54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -2899,7 +2968,7 @@
         <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L59">
         <v>3</v>
@@ -2919,7 +2988,7 @@
         <v>27</v>
       </c>
       <c r="E60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -2954,7 +3023,7 @@
         <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -2969,7 +3038,7 @@
         <v>41</v>
       </c>
       <c r="K61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -3074,7 +3143,7 @@
         <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L64">
         <v>5</v>
@@ -3129,7 +3198,7 @@
         <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -3144,7 +3213,7 @@
         <v>41</v>
       </c>
       <c r="K66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -3164,7 +3233,7 @@
         <v>30</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F67">
         <v>4</v>
@@ -3249,7 +3318,7 @@
         <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L69">
         <v>5</v>
@@ -3374,7 +3443,7 @@
         <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F73">
         <v>60</v>
@@ -3409,7 +3478,7 @@
         <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -3424,7 +3493,7 @@
         <v>41</v>
       </c>
       <c r="K74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -3564,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="K78" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -3584,7 +3653,7 @@
         <v>26</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F79">
         <v>80</v>
@@ -3619,7 +3688,7 @@
         <v>30</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -3634,7 +3703,7 @@
         <v>22</v>
       </c>
       <c r="K80" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L80">
         <v>5</v>
@@ -3759,7 +3828,7 @@
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F84">
         <v>100</v>
@@ -3774,7 +3843,7 @@
         <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L84">
         <v>5</v>
@@ -3794,7 +3863,7 @@
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -3829,7 +3898,7 @@
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -3844,7 +3913,7 @@
         <v>41</v>
       </c>
       <c r="K86" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -3864,7 +3933,7 @@
         <v>30</v>
       </c>
       <c r="E87" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -4019,7 +4088,7 @@
         <v>41</v>
       </c>
       <c r="K91" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -4074,7 +4143,7 @@
         <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F93">
         <v>120</v>
@@ -4109,7 +4178,7 @@
         <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -4124,7 +4193,7 @@
         <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L94">
         <v>5</v>
@@ -4144,7 +4213,7 @@
         <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F95">
         <v>12</v>
@@ -4159,7 +4228,7 @@
         <v>22</v>
       </c>
       <c r="K95" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L95">
         <v>5</v>
@@ -4319,7 +4388,7 @@
         <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -4334,7 +4403,7 @@
         <v>41</v>
       </c>
       <c r="K100" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -4354,7 +4423,7 @@
         <v>30</v>
       </c>
       <c r="E101" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -4369,7 +4438,7 @@
         <v>22</v>
       </c>
       <c r="K101" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L101">
         <v>5</v>
@@ -4439,7 +4508,7 @@
         <v>22</v>
       </c>
       <c r="K103" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L103">
         <v>5</v>
@@ -4544,7 +4613,7 @@
         <v>41</v>
       </c>
       <c r="K106" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -4564,7 +4633,7 @@
         <v>26</v>
       </c>
       <c r="E107" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F107">
         <v>15</v>
@@ -4599,7 +4668,7 @@
         <v>29</v>
       </c>
       <c r="E108" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -4719,7 +4788,7 @@
         <v>22</v>
       </c>
       <c r="K111" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L111">
         <v>5</v>
@@ -4739,7 +4808,7 @@
         <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F112">
         <v>4</v>
@@ -4754,7 +4823,7 @@
         <v>41</v>
       </c>
       <c r="K112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -4774,7 +4843,7 @@
         <v>28</v>
       </c>
       <c r="E113" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -4809,7 +4878,7 @@
         <v>26</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F114">
         <v>30</v>
@@ -4929,7 +4998,7 @@
         <v>22</v>
       </c>
       <c r="K117" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L117">
         <v>5</v>
@@ -4949,7 +5018,7 @@
         <v>27</v>
       </c>
       <c r="E118" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F118">
         <v>6</v>
@@ -4984,7 +5053,7 @@
         <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F119">
         <v>4</v>
@@ -5054,7 +5123,7 @@
         <v>26</v>
       </c>
       <c r="E121" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F121">
         <v>60</v>
@@ -5069,7 +5138,7 @@
         <v>41</v>
       </c>
       <c r="K121" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -5174,7 +5243,7 @@
         <v>22</v>
       </c>
       <c r="K124" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L124">
         <v>5</v>
@@ -5194,7 +5263,7 @@
         <v>26</v>
       </c>
       <c r="E125" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F125">
         <v>90</v>
@@ -5229,7 +5298,7 @@
         <v>28</v>
       </c>
       <c r="E126" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F126">
         <v>4</v>
@@ -5244,7 +5313,7 @@
         <v>41</v>
       </c>
       <c r="K126" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -5264,7 +5333,7 @@
         <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F127">
         <v>6</v>
@@ -5454,7 +5523,7 @@
         <v>22</v>
       </c>
       <c r="K132" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L132">
         <v>5</v>
@@ -5489,7 +5558,7 @@
         <v>41</v>
       </c>
       <c r="K133" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L133">
         <v>1</v>
@@ -5509,7 +5578,7 @@
         <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F134">
         <v>10</v>
@@ -5664,7 +5733,7 @@
         <v>22</v>
       </c>
       <c r="K138" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L138">
         <v>5</v>
@@ -5684,7 +5753,7 @@
         <v>26</v>
       </c>
       <c r="E139" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F139">
         <v>120</v>
@@ -5719,7 +5788,7 @@
         <v>27</v>
       </c>
       <c r="E140" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F140">
         <v>10</v>
@@ -5754,7 +5823,7 @@
         <v>29</v>
       </c>
       <c r="E141" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F141">
         <v>8</v>
@@ -5769,7 +5838,7 @@
         <v>22</v>
       </c>
       <c r="K141" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L141">
         <v>5</v>
@@ -5789,7 +5858,7 @@
         <v>30</v>
       </c>
       <c r="E142" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F142">
         <v>10</v>
@@ -5804,7 +5873,7 @@
         <v>41</v>
       </c>
       <c r="K142" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L142">
         <v>1</v>
@@ -5929,7 +5998,7 @@
         <v>27</v>
       </c>
       <c r="E146" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F146">
         <v>2</v>
@@ -5944,7 +6013,7 @@
         <v>22</v>
       </c>
       <c r="K146" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L146">
         <v>5</v>
@@ -5964,7 +6033,7 @@
         <v>28</v>
       </c>
       <c r="E147" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -5979,7 +6048,7 @@
         <v>41</v>
       </c>
       <c r="K147" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L147">
         <v>1</v>
@@ -5999,7 +6068,7 @@
         <v>29</v>
       </c>
       <c r="E148" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F148">
         <v>2</v>
@@ -6139,7 +6208,7 @@
         <v>27</v>
       </c>
       <c r="E152" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F152">
         <v>4</v>
@@ -6154,7 +6223,7 @@
         <v>22</v>
       </c>
       <c r="K152" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L152">
         <v>5</v>
@@ -6174,7 +6243,7 @@
         <v>28</v>
       </c>
       <c r="E153" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F153">
         <v>4</v>
@@ -6189,7 +6258,7 @@
         <v>41</v>
       </c>
       <c r="K153" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L153">
         <v>1</v>
@@ -6209,7 +6278,7 @@
         <v>29</v>
       </c>
       <c r="E154" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F154">
         <v>4</v>
@@ -6244,7 +6313,7 @@
         <v>30</v>
       </c>
       <c r="E155" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F155">
         <v>2</v>
@@ -6384,7 +6453,7 @@
         <v>27</v>
       </c>
       <c r="E159" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F159">
         <v>6</v>
@@ -6399,7 +6468,7 @@
         <v>41</v>
       </c>
       <c r="K159" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L159">
         <v>1</v>
@@ -6419,7 +6488,7 @@
         <v>28</v>
       </c>
       <c r="E160" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F160">
         <v>6</v>
@@ -6454,7 +6523,7 @@
         <v>29</v>
       </c>
       <c r="E161" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F161">
         <v>6</v>
@@ -6469,7 +6538,7 @@
         <v>22</v>
       </c>
       <c r="K161" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L161">
         <v>5</v>
@@ -6594,7 +6663,7 @@
         <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F165">
         <v>8</v>
@@ -6609,7 +6678,7 @@
         <v>41</v>
       </c>
       <c r="K165" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L165">
         <v>1</v>
@@ -6629,7 +6698,7 @@
         <v>28</v>
       </c>
       <c r="E166" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F166">
         <v>8</v>
@@ -6664,7 +6733,7 @@
         <v>29</v>
       </c>
       <c r="E167" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F167">
         <v>8</v>
@@ -6679,7 +6748,7 @@
         <v>22</v>
       </c>
       <c r="K167" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L167">
         <v>5</v>
@@ -6699,7 +6768,7 @@
         <v>26</v>
       </c>
       <c r="E168" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F168">
         <v>70</v>
@@ -6819,7 +6888,7 @@
         <v>41</v>
       </c>
       <c r="K171" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L171">
         <v>1</v>
@@ -6839,7 +6908,7 @@
         <v>27</v>
       </c>
       <c r="E172" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F172">
         <v>10</v>
@@ -6874,7 +6943,7 @@
         <v>28</v>
       </c>
       <c r="E173" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F173">
         <v>10</v>
@@ -6889,7 +6958,7 @@
         <v>22</v>
       </c>
       <c r="K173" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L173">
         <v>5</v>
@@ -6909,7 +6978,7 @@
         <v>29</v>
       </c>
       <c r="E174" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F174">
         <v>10</v>
@@ -7029,7 +7098,7 @@
         <v>22</v>
       </c>
       <c r="K177" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L177">
         <v>5</v>
@@ -7049,7 +7118,7 @@
         <v>27</v>
       </c>
       <c r="E178" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F178">
         <v>12</v>
@@ -7084,7 +7153,7 @@
         <v>28</v>
       </c>
       <c r="E179" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F179">
         <v>12</v>
@@ -7119,7 +7188,7 @@
         <v>29</v>
       </c>
       <c r="E180" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F180">
         <v>12</v>
@@ -7154,7 +7223,7 @@
         <v>30</v>
       </c>
       <c r="E181" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F181">
         <v>10</v>
@@ -7169,7 +7238,7 @@
         <v>41</v>
       </c>
       <c r="K181" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L181">
         <v>1</v>
@@ -7274,7 +7343,7 @@
         <v>22</v>
       </c>
       <c r="K184" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L184">
         <v>5</v>
@@ -7379,7 +7448,7 @@
         <v>22</v>
       </c>
       <c r="K187" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L187">
         <v>5</v>
@@ -7399,7 +7468,7 @@
         <v>26</v>
       </c>
       <c r="E188" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F188">
         <v>120</v>
@@ -7414,7 +7483,7 @@
         <v>41</v>
       </c>
       <c r="K188" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L188">
         <v>1</v>
@@ -7434,7 +7503,7 @@
         <v>30</v>
       </c>
       <c r="E189" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F189">
         <v>12</v>
@@ -7506,7 +7575,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -7546,7 +7615,7 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -7586,7 +7655,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -7606,7 +7675,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>150</v>
@@ -7626,7 +7695,7 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -7646,7 +7715,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -7686,7 +7755,7 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -7726,7 +7795,7 @@
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -7746,7 +7815,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>150</v>
@@ -7766,7 +7835,7 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -7786,7 +7855,7 @@
         <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -7806,7 +7875,7 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -7846,7 +7915,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -7886,7 +7955,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -7906,7 +7975,7 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>150</v>
@@ -7926,7 +7995,7 @@
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -7946,7 +8015,7 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -7966,7 +8035,7 @@
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -7986,7 +8055,7 @@
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>100</v>
@@ -8026,7 +8095,7 @@
         <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -8066,7 +8135,7 @@
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -8086,7 +8155,7 @@
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>150</v>
@@ -8106,7 +8175,7 @@
         <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -8126,7 +8195,7 @@
         <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -8142,7 +8211,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A90C97E-132D-4750-ABEC-292E39282DC0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8192,13 +8263,13 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>1036800</v>
+        <v>1555200</v>
       </c>
       <c r="D2">
-        <v>1209600</v>
+        <v>1728000</v>
       </c>
       <c r="E2">
-        <v>1296000</v>
+        <v>1814400</v>
       </c>
       <c r="F2">
         <v>2022</v>
@@ -8227,13 +8298,13 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>1036800</v>
+        <v>1555200</v>
       </c>
       <c r="D3">
-        <v>1209600</v>
+        <v>1728000</v>
       </c>
       <c r="E3">
-        <v>1296000</v>
+        <v>1814400</v>
       </c>
       <c r="F3">
         <v>2022</v>
@@ -8262,13 +8333,13 @@
         <v>35</v>
       </c>
       <c r="C4">
-        <v>1036800</v>
+        <v>1555200</v>
       </c>
       <c r="D4">
-        <v>1209600</v>
+        <v>1728000</v>
       </c>
       <c r="E4">
-        <v>1296000</v>
+        <v>1814400</v>
       </c>
       <c r="F4">
         <v>2022</v>
@@ -8297,7 +8368,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BAFCC6-D21D-4D9A-8592-5C5DA7F81395}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -8348,10 +8419,10 @@
         <v>29</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>366</v>
@@ -8374,7 +8445,7 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>812</v>
@@ -8388,13 +8459,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -8411,16 +8482,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>240</v>
@@ -8434,16 +8505,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>260</v>
@@ -8463,10 +8534,10 @@
         <v>31</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H7">
         <v>484</v>
@@ -8474,22 +8545,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H8">
         <v>474</v>
@@ -8497,22 +8568,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>744</v>
@@ -8520,19 +8591,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>50</v>
@@ -8543,22 +8614,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>933</v>
@@ -8566,22 +8637,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G12">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>659</v>
@@ -8589,22 +8660,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>480</v>
       </c>
       <c r="G13">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H13">
         <v>674</v>
@@ -8612,22 +8683,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>840</v>
       </c>
       <c r="G14">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H14">
         <v>637</v>
@@ -8635,22 +8706,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>1300</v>
       </c>
       <c r="G15">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H15">
         <v>232</v>
@@ -8658,10 +8729,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -8670,7 +8741,7 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>60</v>
+        <v>1660</v>
       </c>
       <c r="G16">
         <v>50</v>
@@ -8681,22 +8752,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E17">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="G17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H17">
         <v>178</v>
@@ -8704,22 +8775,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G18">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H18">
         <v>102</v>
@@ -8727,25 +8798,2371 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>350</v>
       </c>
       <c r="G19">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H19">
         <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20">
+        <v>500</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <v>650</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30">
+        <v>22</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31">
+        <v>28</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36">
+        <v>26</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>150</v>
+      </c>
+      <c r="H37">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>150</v>
+      </c>
+      <c r="H38">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39">
+        <v>21</v>
+      </c>
+      <c r="G39">
+        <v>150</v>
+      </c>
+      <c r="H39">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="G40">
+        <v>150</v>
+      </c>
+      <c r="H40">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41">
+        <v>38</v>
+      </c>
+      <c r="G41">
+        <v>150</v>
+      </c>
+      <c r="H41">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>50</v>
+      </c>
+      <c r="H42">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+      <c r="H44">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>13</v>
+      </c>
+      <c r="G46">
+        <v>50</v>
+      </c>
+      <c r="H46">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>50</v>
+      </c>
+      <c r="H47">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>50</v>
+      </c>
+      <c r="H48">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="G49">
+        <v>50</v>
+      </c>
+      <c r="H49">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="H50">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52">
+        <v>120</v>
+      </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>480</v>
+      </c>
+      <c r="G53">
+        <v>50</v>
+      </c>
+      <c r="H53">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54">
+        <v>840</v>
+      </c>
+      <c r="G54">
+        <v>50</v>
+      </c>
+      <c r="H54">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55">
+        <v>1300</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
+      </c>
+      <c r="H55">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56">
+        <v>1660</v>
+      </c>
+      <c r="G56">
+        <v>50</v>
+      </c>
+      <c r="H56">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>50</v>
+      </c>
+      <c r="H57">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58">
+        <v>200</v>
+      </c>
+      <c r="G58">
+        <v>50</v>
+      </c>
+      <c r="H58">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59">
+        <v>350</v>
+      </c>
+      <c r="G59">
+        <v>50</v>
+      </c>
+      <c r="H59">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60">
+        <v>500</v>
+      </c>
+      <c r="G60">
+        <v>50</v>
+      </c>
+      <c r="H60">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61">
+        <v>650</v>
+      </c>
+      <c r="G61">
+        <v>50</v>
+      </c>
+      <c r="H61">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+      <c r="H63">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64">
+        <v>18</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+      <c r="H64">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65">
+        <v>24</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>27</v>
+      </c>
+      <c r="D66" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>26</v>
+      </c>
+      <c r="C67">
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+      <c r="H67">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>27</v>
+      </c>
+      <c r="C68">
+        <v>29</v>
+      </c>
+      <c r="D68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>28</v>
+      </c>
+      <c r="C69">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69">
+        <v>16</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>29</v>
+      </c>
+      <c r="C70">
+        <v>29</v>
+      </c>
+      <c r="D70" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70">
+        <v>22</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+      <c r="H70">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71">
+        <v>29</v>
+      </c>
+      <c r="D71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71">
+        <v>28</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+      <c r="H71">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>31</v>
+      </c>
+      <c r="C72">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+      <c r="H72">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>32</v>
+      </c>
+      <c r="C73">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73">
+        <v>8</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+      <c r="H73">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74">
+        <v>33</v>
+      </c>
+      <c r="C74">
+        <v>28</v>
+      </c>
+      <c r="D74" t="s">
+        <v>55</v>
+      </c>
+      <c r="E74">
+        <v>14</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75">
+        <v>34</v>
+      </c>
+      <c r="C75">
+        <v>28</v>
+      </c>
+      <c r="D75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+      <c r="H75">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76">
+        <v>35</v>
+      </c>
+      <c r="C76">
+        <v>28</v>
+      </c>
+      <c r="D76" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76">
+        <v>26</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77">
+        <v>36</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>150</v>
+      </c>
+      <c r="H77">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78">
+        <v>37</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78">
+        <v>12</v>
+      </c>
+      <c r="G78">
+        <v>150</v>
+      </c>
+      <c r="H78">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>38</v>
+      </c>
+      <c r="C79">
+        <v>30</v>
+      </c>
+      <c r="D79" t="s">
+        <v>51</v>
+      </c>
+      <c r="E79">
+        <v>21</v>
+      </c>
+      <c r="G79">
+        <v>150</v>
+      </c>
+      <c r="H79">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>39</v>
+      </c>
+      <c r="C80">
+        <v>30</v>
+      </c>
+      <c r="D80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
+      </c>
+      <c r="G80">
+        <v>150</v>
+      </c>
+      <c r="H80">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81">
+        <v>40</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+      <c r="D81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81">
+        <v>38</v>
+      </c>
+      <c r="G81">
+        <v>150</v>
+      </c>
+      <c r="H81">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>50</v>
+      </c>
+      <c r="H82">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="G83">
+        <v>50</v>
+      </c>
+      <c r="H83">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84">
+        <v>7</v>
+      </c>
+      <c r="G84">
+        <v>50</v>
+      </c>
+      <c r="H84">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>50</v>
+      </c>
+      <c r="H85">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86">
+        <v>13</v>
+      </c>
+      <c r="G86">
+        <v>50</v>
+      </c>
+      <c r="H86">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>50</v>
+      </c>
+      <c r="H87">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="G88">
+        <v>50</v>
+      </c>
+      <c r="H88">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89">
+        <v>9</v>
+      </c>
+      <c r="G89">
+        <v>50</v>
+      </c>
+      <c r="H89">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90">
+        <v>12</v>
+      </c>
+      <c r="G90">
+        <v>50</v>
+      </c>
+      <c r="H90">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91">
+        <v>15</v>
+      </c>
+      <c r="G91">
+        <v>50</v>
+      </c>
+      <c r="H91">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92">
+        <v>120</v>
+      </c>
+      <c r="G92">
+        <v>50</v>
+      </c>
+      <c r="H92">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93">
+        <v>480</v>
+      </c>
+      <c r="G93">
+        <v>50</v>
+      </c>
+      <c r="H93">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94">
+        <v>840</v>
+      </c>
+      <c r="G94">
+        <v>50</v>
+      </c>
+      <c r="H94">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95">
+        <v>1300</v>
+      </c>
+      <c r="G95">
+        <v>50</v>
+      </c>
+      <c r="H95">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96">
+        <v>1660</v>
+      </c>
+      <c r="G96">
+        <v>50</v>
+      </c>
+      <c r="H96">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>26</v>
+      </c>
+      <c r="D97" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97">
+        <v>50</v>
+      </c>
+      <c r="G97">
+        <v>50</v>
+      </c>
+      <c r="H97">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98">
+        <v>200</v>
+      </c>
+      <c r="G98">
+        <v>50</v>
+      </c>
+      <c r="H98">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>18</v>
+      </c>
+      <c r="C99">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99">
+        <v>350</v>
+      </c>
+      <c r="G99">
+        <v>50</v>
+      </c>
+      <c r="H99">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>19</v>
+      </c>
+      <c r="C100">
+        <v>26</v>
+      </c>
+      <c r="D100" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100">
+        <v>500</v>
+      </c>
+      <c r="G100">
+        <v>50</v>
+      </c>
+      <c r="H100">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+      <c r="C101">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101">
+        <v>650</v>
+      </c>
+      <c r="G101">
+        <v>50</v>
+      </c>
+      <c r="H101">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102">
+        <v>21</v>
+      </c>
+      <c r="C102">
+        <v>27</v>
+      </c>
+      <c r="D102" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>27</v>
+      </c>
+      <c r="D103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E103">
+        <v>12</v>
+      </c>
+      <c r="G103">
+        <v>100</v>
+      </c>
+      <c r="H103">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>23</v>
+      </c>
+      <c r="C104">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>53</v>
+      </c>
+      <c r="E104">
+        <v>18</v>
+      </c>
+      <c r="G104">
+        <v>100</v>
+      </c>
+      <c r="H104">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <v>27</v>
+      </c>
+      <c r="D105" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105">
+        <v>24</v>
+      </c>
+      <c r="G105">
+        <v>100</v>
+      </c>
+      <c r="H105">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>53</v>
+      </c>
+      <c r="E106">
+        <v>30</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+      <c r="H106">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>26</v>
+      </c>
+      <c r="C107">
+        <v>29</v>
+      </c>
+      <c r="D107" t="s">
+        <v>54</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <v>100</v>
+      </c>
+      <c r="H107">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>27</v>
+      </c>
+      <c r="C108">
+        <v>29</v>
+      </c>
+      <c r="D108" t="s">
+        <v>54</v>
+      </c>
+      <c r="E108">
+        <v>10</v>
+      </c>
+      <c r="G108">
+        <v>100</v>
+      </c>
+      <c r="H108">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>28</v>
+      </c>
+      <c r="C109">
+        <v>29</v>
+      </c>
+      <c r="D109" t="s">
+        <v>54</v>
+      </c>
+      <c r="E109">
+        <v>16</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+      <c r="H109">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>29</v>
+      </c>
+      <c r="C110">
+        <v>29</v>
+      </c>
+      <c r="D110" t="s">
+        <v>54</v>
+      </c>
+      <c r="E110">
+        <v>22</v>
+      </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+      <c r="H110">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <v>29</v>
+      </c>
+      <c r="D111" t="s">
+        <v>54</v>
+      </c>
+      <c r="E111">
+        <v>28</v>
+      </c>
+      <c r="G111">
+        <v>100</v>
+      </c>
+      <c r="H111">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>31</v>
+      </c>
+      <c r="C112">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>55</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>100</v>
+      </c>
+      <c r="H112">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>32</v>
+      </c>
+      <c r="C113">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>55</v>
+      </c>
+      <c r="E113">
+        <v>8</v>
+      </c>
+      <c r="G113">
+        <v>100</v>
+      </c>
+      <c r="H113">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>33</v>
+      </c>
+      <c r="C114">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>55</v>
+      </c>
+      <c r="E114">
+        <v>14</v>
+      </c>
+      <c r="G114">
+        <v>100</v>
+      </c>
+      <c r="H114">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>34</v>
+      </c>
+      <c r="C115">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115">
+        <v>20</v>
+      </c>
+      <c r="G115">
+        <v>100</v>
+      </c>
+      <c r="H115">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>35</v>
+      </c>
+      <c r="C116">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>55</v>
+      </c>
+      <c r="E116">
+        <v>26</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+      <c r="H116">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <v>36</v>
+      </c>
+      <c r="C117">
+        <v>30</v>
+      </c>
+      <c r="D117" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <v>150</v>
+      </c>
+      <c r="H117">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>37</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+      <c r="D118" t="s">
+        <v>51</v>
+      </c>
+      <c r="E118">
+        <v>12</v>
+      </c>
+      <c r="G118">
+        <v>150</v>
+      </c>
+      <c r="H118">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>38</v>
+      </c>
+      <c r="C119">
+        <v>30</v>
+      </c>
+      <c r="D119" t="s">
+        <v>51</v>
+      </c>
+      <c r="E119">
+        <v>21</v>
+      </c>
+      <c r="G119">
+        <v>150</v>
+      </c>
+      <c r="H119">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>39</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="D120" t="s">
+        <v>51</v>
+      </c>
+      <c r="E120">
+        <v>30</v>
+      </c>
+      <c r="G120">
+        <v>150</v>
+      </c>
+      <c r="H120">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>40</v>
+      </c>
+      <c r="C121">
+        <v>30</v>
+      </c>
+      <c r="D121" t="s">
+        <v>51</v>
+      </c>
+      <c r="E121">
+        <v>38</v>
+      </c>
+      <c r="G121">
+        <v>150</v>
+      </c>
+      <c r="H121">
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -8756,7 +11173,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB413D-F0B5-4DF8-BB61-465D9B0D6AD8}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -8805,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="E2">
         <v>661</v>
@@ -8814,7 +11231,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -8831,7 +11248,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="E3">
         <v>514</v>
@@ -8840,7 +11257,7 @@
         <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -8857,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="E4">
         <v>595</v>
@@ -8866,7 +11283,7 @@
         <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -8883,7 +11300,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>1250</v>
       </c>
       <c r="E5">
         <v>439</v>
@@ -8892,7 +11309,7 @@
         <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -8909,19 +11326,19 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="E6">
         <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -8932,22 +11349,22 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>750</v>
       </c>
       <c r="E7">
         <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="H7">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -8958,36 +11375,36 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>750</v>
       </c>
       <c r="E8">
         <v>434</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="E9">
         <v>891</v>
@@ -8996,7 +11413,7 @@
         <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -9004,16 +11421,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>1250</v>
       </c>
       <c r="E10">
         <v>438</v>
@@ -9022,7 +11439,7 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -9030,16 +11447,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>300</v>
+        <v>1250</v>
       </c>
       <c r="E11">
         <v>781</v>
@@ -9048,7 +11465,7 @@
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -9056,16 +11473,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="E12">
         <v>556</v>
@@ -9074,7 +11491,7 @@
         <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -9082,68 +11499,68 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E13">
         <v>878</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="E14">
         <v>605</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H14">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>525</v>
@@ -9152,24 +11569,24 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>534</v>
@@ -9178,102 +11595,102 @@
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16">
-        <v>2000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>694</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>626</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>868</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>400</v>
+        <v>1250</v>
       </c>
       <c r="E20">
         <v>836</v>
@@ -9282,7 +11699,7 @@
         <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -9290,106 +11707,912 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="E21">
         <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>700</v>
+        <v>1250</v>
       </c>
       <c r="E22">
         <v>255</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="H22">
-        <v>2500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="E23">
         <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="E24">
         <v>762</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>750</v>
+      </c>
+      <c r="E25">
+        <v>905</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>750</v>
+      </c>
+      <c r="E26">
+        <v>660</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>750</v>
+      </c>
+      <c r="E27">
+        <v>211</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1250</v>
+      </c>
+      <c r="E28">
+        <v>379</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1250</v>
+      </c>
+      <c r="E29">
+        <v>736</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>750</v>
+      </c>
+      <c r="E30">
+        <v>937</v>
+      </c>
+      <c r="F30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>750</v>
+      </c>
+      <c r="E31">
+        <v>288</v>
+      </c>
+      <c r="F31" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1250</v>
+      </c>
+      <c r="E32">
+        <v>869</v>
+      </c>
+      <c r="F32" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>237</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>725</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>644</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>477</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
         <v>24</v>
       </c>
-      <c r="H24">
-        <v>2000</v>
+      <c r="H36">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>651</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1250</v>
+      </c>
+      <c r="E38">
+        <v>656</v>
+      </c>
+      <c r="F38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1250</v>
+      </c>
+      <c r="E39">
+        <v>216</v>
+      </c>
+      <c r="F39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1250</v>
+      </c>
+      <c r="E40">
+        <v>209</v>
+      </c>
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1250</v>
+      </c>
+      <c r="E41">
+        <v>331</v>
+      </c>
+      <c r="F41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>113</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>750</v>
+      </c>
+      <c r="E42">
+        <v>122</v>
+      </c>
+      <c r="F42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>750</v>
+      </c>
+      <c r="E43">
+        <v>962</v>
+      </c>
+      <c r="F43" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>750</v>
+      </c>
+      <c r="E44">
+        <v>793</v>
+      </c>
+      <c r="F44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>750</v>
+      </c>
+      <c r="E45">
+        <v>932</v>
+      </c>
+      <c r="F45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1250</v>
+      </c>
+      <c r="E46">
+        <v>293</v>
+      </c>
+      <c r="F46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1250</v>
+      </c>
+      <c r="E47">
+        <v>296</v>
+      </c>
+      <c r="F47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>750</v>
+      </c>
+      <c r="E48">
+        <v>230</v>
+      </c>
+      <c r="F48" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>750</v>
+      </c>
+      <c r="E49">
+        <v>553</v>
+      </c>
+      <c r="F49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1250</v>
+      </c>
+      <c r="E50">
+        <v>905</v>
+      </c>
+      <c r="F50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>931</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>310</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>103</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>909</v>
+      </c>
+      <c r="F54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>332</v>
+      </c>
+      <c r="F55" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B3F15C-E93A-4606-9418-18779674BBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFFB8EC-308C-4155-8642-367ED0F6C242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
@@ -138,15 +138,6 @@
   </si>
   <si>
     <t>iconAddress|String</t>
-  </si>
-  <si>
-    <t>Shot_HeavyAxe</t>
-  </si>
-  <si>
-    <t>Shot_HeavyMace</t>
-  </si>
-  <si>
-    <t>Shot_HeavyHammer</t>
   </si>
   <si>
     <t>QuestDesc_17</t>
@@ -390,6 +381,15 @@
   </si>
   <si>
     <t>Equip038001</t>
+  </si>
+  <si>
+    <t>Festival_26_7</t>
+  </si>
+  <si>
+    <t>Festival_21_2</t>
+  </si>
+  <si>
+    <t>Festival_01_4</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -993,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -1028,7 +1028,7 @@
         <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1043,7 +1043,7 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -1098,7 +1098,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1133,7 +1133,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1168,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8">
         <v>40</v>
@@ -1203,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <v>40</v>
@@ -1215,10 +1215,10 @@
         <v>916</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1288,7 +1288,7 @@
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L11">
         <v>3</v>
@@ -1308,7 +1308,7 @@
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>30</v>
@@ -1413,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -1448,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1498,7 +1498,7 @@
         <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L17">
         <v>3</v>
@@ -1518,7 +1518,7 @@
         <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1530,10 +1530,10 @@
         <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1623,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F21">
         <v>60</v>
@@ -1658,7 +1658,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F22">
         <v>60</v>
@@ -1693,7 +1693,7 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -1705,10 +1705,10 @@
         <v>807</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F24">
         <v>60</v>
@@ -1848,7 +1848,7 @@
         <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -1868,7 +1868,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F28">
         <v>70</v>
@@ -1903,7 +1903,7 @@
         <v>30</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F29">
         <v>8</v>
@@ -1938,7 +1938,7 @@
         <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -1973,7 +1973,7 @@
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -1988,7 +1988,7 @@
         <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -2008,7 +2008,7 @@
         <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F32">
         <v>30</v>
@@ -2020,10 +2020,10 @@
         <v>806</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -2078,7 +2078,7 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>80</v>
@@ -2113,7 +2113,7 @@
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F35">
         <v>80</v>
@@ -2198,7 +2198,7 @@
         <v>22</v>
       </c>
       <c r="K37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L37">
         <v>5</v>
@@ -2218,7 +2218,7 @@
         <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -2230,10 +2230,10 @@
         <v>277</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2253,7 +2253,7 @@
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39">
         <v>20</v>
@@ -2288,7 +2288,7 @@
         <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -2323,7 +2323,7 @@
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F41">
         <v>100</v>
@@ -2358,7 +2358,7 @@
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -2370,10 +2370,10 @@
         <v>654</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -2393,7 +2393,7 @@
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -2408,7 +2408,7 @@
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L43">
         <v>5</v>
@@ -2463,7 +2463,7 @@
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F45">
         <v>120</v>
@@ -2513,7 +2513,7 @@
         <v>22</v>
       </c>
       <c r="K46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L46">
         <v>5</v>
@@ -2533,7 +2533,7 @@
         <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F47">
         <v>15</v>
@@ -2568,7 +2568,7 @@
         <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F48">
         <v>12</v>
@@ -2673,7 +2673,7 @@
         <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2743,7 +2743,7 @@
         <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F53">
         <v>15</v>
@@ -2758,7 +2758,7 @@
         <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L53">
         <v>5</v>
@@ -2778,7 +2778,7 @@
         <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2790,10 +2790,10 @@
         <v>841</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K54" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -2918,7 +2918,7 @@
         <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2968,7 +2968,7 @@
         <v>22</v>
       </c>
       <c r="K59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L59">
         <v>3</v>
@@ -2988,7 +2988,7 @@
         <v>27</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -3023,7 +3023,7 @@
         <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -3035,10 +3035,10 @@
         <v>660</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -3128,7 +3128,7 @@
         <v>18</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>22</v>
       </c>
       <c r="K64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L64">
         <v>5</v>
@@ -3198,7 +3198,7 @@
         <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -3210,10 +3210,10 @@
         <v>774</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K66" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>30</v>
       </c>
       <c r="E67" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F67">
         <v>4</v>
@@ -3318,7 +3318,7 @@
         <v>22</v>
       </c>
       <c r="K69" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L69">
         <v>5</v>
@@ -3373,7 +3373,7 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F71">
         <v>3</v>
@@ -3408,7 +3408,7 @@
         <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F72">
         <v>3</v>
@@ -3443,7 +3443,7 @@
         <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F73">
         <v>60</v>
@@ -3478,7 +3478,7 @@
         <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -3490,10 +3490,10 @@
         <v>769</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K74" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -3583,7 +3583,7 @@
         <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F77">
         <v>4</v>
@@ -3630,10 +3630,10 @@
         <v>355</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K78" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L78">
         <v>1</v>
@@ -3653,7 +3653,7 @@
         <v>26</v>
       </c>
       <c r="E79" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F79">
         <v>80</v>
@@ -3688,7 +3688,7 @@
         <v>30</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -3703,7 +3703,7 @@
         <v>22</v>
       </c>
       <c r="K80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L80">
         <v>5</v>
@@ -3828,7 +3828,7 @@
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F84">
         <v>100</v>
@@ -3843,7 +3843,7 @@
         <v>22</v>
       </c>
       <c r="K84" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L84">
         <v>5</v>
@@ -3863,7 +3863,7 @@
         <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -3898,7 +3898,7 @@
         <v>28</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -3910,10 +3910,10 @@
         <v>331</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K86" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>30</v>
       </c>
       <c r="E87" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -4073,7 +4073,7 @@
         <v>17</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F91">
         <v>4</v>
@@ -4085,10 +4085,10 @@
         <v>221</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K91" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L91">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F93">
         <v>120</v>
@@ -4178,7 +4178,7 @@
         <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -4193,7 +4193,7 @@
         <v>22</v>
       </c>
       <c r="K94" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L94">
         <v>5</v>
@@ -4213,7 +4213,7 @@
         <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F95">
         <v>12</v>
@@ -4228,7 +4228,7 @@
         <v>22</v>
       </c>
       <c r="K95" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L95">
         <v>5</v>
@@ -4388,7 +4388,7 @@
         <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -4400,10 +4400,10 @@
         <v>187</v>
       </c>
       <c r="J100" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K100" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L100">
         <v>1</v>
@@ -4423,7 +4423,7 @@
         <v>30</v>
       </c>
       <c r="E101" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -4438,7 +4438,7 @@
         <v>22</v>
       </c>
       <c r="K101" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L101">
         <v>5</v>
@@ -4508,7 +4508,7 @@
         <v>22</v>
       </c>
       <c r="K103" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L103">
         <v>5</v>
@@ -4528,7 +4528,7 @@
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -4563,7 +4563,7 @@
         <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -4610,10 +4610,10 @@
         <v>462</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K106" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L106">
         <v>1</v>
@@ -4633,7 +4633,7 @@
         <v>26</v>
       </c>
       <c r="E107" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F107">
         <v>15</v>
@@ -4668,7 +4668,7 @@
         <v>29</v>
       </c>
       <c r="E108" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -4773,7 +4773,7 @@
         <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -4788,7 +4788,7 @@
         <v>22</v>
       </c>
       <c r="K111" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L111">
         <v>5</v>
@@ -4808,7 +4808,7 @@
         <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F112">
         <v>4</v>
@@ -4820,10 +4820,10 @@
         <v>457</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K112" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -4843,7 +4843,7 @@
         <v>28</v>
       </c>
       <c r="E113" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -4878,7 +4878,7 @@
         <v>26</v>
       </c>
       <c r="E114" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F114">
         <v>30</v>
@@ -4998,7 +4998,7 @@
         <v>22</v>
       </c>
       <c r="K117" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L117">
         <v>5</v>
@@ -5018,7 +5018,7 @@
         <v>27</v>
       </c>
       <c r="E118" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F118">
         <v>6</v>
@@ -5053,7 +5053,7 @@
         <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F119">
         <v>4</v>
@@ -5088,7 +5088,7 @@
         <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -5123,7 +5123,7 @@
         <v>26</v>
       </c>
       <c r="E121" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F121">
         <v>60</v>
@@ -5135,10 +5135,10 @@
         <v>301</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K121" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -5228,7 +5228,7 @@
         <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F124">
         <v>4</v>
@@ -5243,7 +5243,7 @@
         <v>22</v>
       </c>
       <c r="K124" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L124">
         <v>5</v>
@@ -5263,7 +5263,7 @@
         <v>26</v>
       </c>
       <c r="E125" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F125">
         <v>90</v>
@@ -5298,7 +5298,7 @@
         <v>28</v>
       </c>
       <c r="E126" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F126">
         <v>4</v>
@@ -5310,10 +5310,10 @@
         <v>504</v>
       </c>
       <c r="J126" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K126" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -5333,7 +5333,7 @@
         <v>30</v>
       </c>
       <c r="E127" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F127">
         <v>6</v>
@@ -5473,7 +5473,7 @@
         <v>17</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F131">
         <v>6</v>
@@ -5508,7 +5508,7 @@
         <v>18</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F132">
         <v>4</v>
@@ -5523,7 +5523,7 @@
         <v>22</v>
       </c>
       <c r="K132" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L132">
         <v>5</v>
@@ -5555,10 +5555,10 @@
         <v>647</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K133" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L133">
         <v>1</v>
@@ -5578,7 +5578,7 @@
         <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F134">
         <v>10</v>
@@ -5733,7 +5733,7 @@
         <v>22</v>
       </c>
       <c r="K138" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L138">
         <v>5</v>
@@ -5753,7 +5753,7 @@
         <v>26</v>
       </c>
       <c r="E139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F139">
         <v>120</v>
@@ -5788,7 +5788,7 @@
         <v>27</v>
       </c>
       <c r="E140" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F140">
         <v>10</v>
@@ -5823,7 +5823,7 @@
         <v>29</v>
       </c>
       <c r="E141" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F141">
         <v>8</v>
@@ -5838,7 +5838,7 @@
         <v>22</v>
       </c>
       <c r="K141" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L141">
         <v>5</v>
@@ -5858,7 +5858,7 @@
         <v>30</v>
       </c>
       <c r="E142" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F142">
         <v>10</v>
@@ -5870,10 +5870,10 @@
         <v>715</v>
       </c>
       <c r="J142" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K142" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L142">
         <v>1</v>
@@ -5998,7 +5998,7 @@
         <v>27</v>
       </c>
       <c r="E146" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F146">
         <v>2</v>
@@ -6013,7 +6013,7 @@
         <v>22</v>
       </c>
       <c r="K146" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L146">
         <v>5</v>
@@ -6033,7 +6033,7 @@
         <v>28</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -6045,10 +6045,10 @@
         <v>187</v>
       </c>
       <c r="J147" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K147" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L147">
         <v>1</v>
@@ -6068,7 +6068,7 @@
         <v>29</v>
       </c>
       <c r="E148" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F148">
         <v>2</v>
@@ -6208,7 +6208,7 @@
         <v>27</v>
       </c>
       <c r="E152" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F152">
         <v>4</v>
@@ -6223,7 +6223,7 @@
         <v>22</v>
       </c>
       <c r="K152" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L152">
         <v>5</v>
@@ -6243,7 +6243,7 @@
         <v>28</v>
       </c>
       <c r="E153" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F153">
         <v>4</v>
@@ -6255,10 +6255,10 @@
         <v>462</v>
       </c>
       <c r="J153" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K153" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L153">
         <v>1</v>
@@ -6278,7 +6278,7 @@
         <v>29</v>
       </c>
       <c r="E154" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F154">
         <v>4</v>
@@ -6313,7 +6313,7 @@
         <v>30</v>
       </c>
       <c r="E155" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F155">
         <v>2</v>
@@ -6453,7 +6453,7 @@
         <v>27</v>
       </c>
       <c r="E159" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F159">
         <v>6</v>
@@ -6465,10 +6465,10 @@
         <v>457</v>
       </c>
       <c r="J159" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K159" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L159">
         <v>1</v>
@@ -6488,7 +6488,7 @@
         <v>28</v>
       </c>
       <c r="E160" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F160">
         <v>6</v>
@@ -6523,7 +6523,7 @@
         <v>29</v>
       </c>
       <c r="E161" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F161">
         <v>6</v>
@@ -6538,7 +6538,7 @@
         <v>22</v>
       </c>
       <c r="K161" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L161">
         <v>5</v>
@@ -6628,7 +6628,7 @@
         <v>17</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -6663,7 +6663,7 @@
         <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F165">
         <v>8</v>
@@ -6675,10 +6675,10 @@
         <v>927</v>
       </c>
       <c r="J165" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K165" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L165">
         <v>1</v>
@@ -6698,7 +6698,7 @@
         <v>28</v>
       </c>
       <c r="E166" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F166">
         <v>8</v>
@@ -6733,7 +6733,7 @@
         <v>29</v>
       </c>
       <c r="E167" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F167">
         <v>8</v>
@@ -6748,7 +6748,7 @@
         <v>22</v>
       </c>
       <c r="K167" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L167">
         <v>5</v>
@@ -6768,7 +6768,7 @@
         <v>26</v>
       </c>
       <c r="E168" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F168">
         <v>70</v>
@@ -6885,10 +6885,10 @@
         <v>485</v>
       </c>
       <c r="J171" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K171" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L171">
         <v>1</v>
@@ -6908,7 +6908,7 @@
         <v>27</v>
       </c>
       <c r="E172" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F172">
         <v>10</v>
@@ -6943,7 +6943,7 @@
         <v>28</v>
       </c>
       <c r="E173" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F173">
         <v>10</v>
@@ -6958,7 +6958,7 @@
         <v>22</v>
       </c>
       <c r="K173" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L173">
         <v>5</v>
@@ -6978,7 +6978,7 @@
         <v>29</v>
       </c>
       <c r="E174" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F174">
         <v>10</v>
@@ -7098,7 +7098,7 @@
         <v>22</v>
       </c>
       <c r="K177" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L177">
         <v>5</v>
@@ -7118,7 +7118,7 @@
         <v>27</v>
       </c>
       <c r="E178" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F178">
         <v>12</v>
@@ -7153,7 +7153,7 @@
         <v>28</v>
       </c>
       <c r="E179" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F179">
         <v>12</v>
@@ -7188,7 +7188,7 @@
         <v>29</v>
       </c>
       <c r="E180" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F180">
         <v>12</v>
@@ -7223,7 +7223,7 @@
         <v>30</v>
       </c>
       <c r="E181" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F181">
         <v>10</v>
@@ -7235,10 +7235,10 @@
         <v>256</v>
       </c>
       <c r="J181" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K181" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L181">
         <v>1</v>
@@ -7328,7 +7328,7 @@
         <v>19</v>
       </c>
       <c r="E184" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -7343,7 +7343,7 @@
         <v>22</v>
       </c>
       <c r="K184" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L184">
         <v>5</v>
@@ -7363,7 +7363,7 @@
         <v>18</v>
       </c>
       <c r="E185" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -7448,7 +7448,7 @@
         <v>22</v>
       </c>
       <c r="K187" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L187">
         <v>5</v>
@@ -7468,7 +7468,7 @@
         <v>26</v>
       </c>
       <c r="E188" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F188">
         <v>120</v>
@@ -7480,10 +7480,10 @@
         <v>490</v>
       </c>
       <c r="J188" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K188" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L188">
         <v>1</v>
@@ -7503,7 +7503,7 @@
         <v>30</v>
       </c>
       <c r="E189" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F189">
         <v>12</v>
@@ -7575,7 +7575,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -7612,10 +7612,10 @@
         <v>557</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -7652,10 +7652,10 @@
         <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -7675,7 +7675,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F7">
         <v>150</v>
@@ -7692,10 +7692,10 @@
         <v>930</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -7712,10 +7712,10 @@
         <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -7755,7 +7755,7 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -7792,10 +7792,10 @@
         <v>585</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -7815,7 +7815,7 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14">
         <v>150</v>
@@ -7832,10 +7832,10 @@
         <v>560</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -7852,10 +7852,10 @@
         <v>943</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -7872,10 +7872,10 @@
         <v>775</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -7915,7 +7915,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -7952,10 +7952,10 @@
         <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -7975,7 +7975,7 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F22">
         <v>150</v>
@@ -7992,10 +7992,10 @@
         <v>976</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -8012,10 +8012,10 @@
         <v>542</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -8032,10 +8032,10 @@
         <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -8055,7 +8055,7 @@
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F26">
         <v>100</v>
@@ -8092,10 +8092,10 @@
         <v>380</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -8132,10 +8132,10 @@
         <v>197</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -8155,7 +8155,7 @@
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>150</v>
@@ -8172,10 +8172,10 @@
         <v>542</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -8192,10 +8192,10 @@
         <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -8260,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="C2">
         <v>1555200</v>
@@ -8295,7 +8295,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C3">
         <v>1555200</v>
@@ -8330,7 +8330,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C4">
         <v>1555200</v>
@@ -8761,7 +8761,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>50</v>
@@ -8784,7 +8784,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>200</v>
@@ -8807,7 +8807,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19">
         <v>350</v>
@@ -8830,7 +8830,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -8853,7 +8853,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>650</v>
@@ -8876,7 +8876,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -8899,7 +8899,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>12</v>
@@ -8922,7 +8922,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>18</v>
@@ -8945,7 +8945,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -8968,7 +8968,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>30</v>
@@ -8991,7 +8991,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -9014,7 +9014,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>10</v>
@@ -9037,7 +9037,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E29">
         <v>16</v>
@@ -9060,7 +9060,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E30">
         <v>22</v>
@@ -9083,7 +9083,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E31">
         <v>28</v>
@@ -9106,7 +9106,7 @@
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -9129,7 +9129,7 @@
         <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E33">
         <v>8</v>
@@ -9152,7 +9152,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E34">
         <v>14</v>
@@ -9175,7 +9175,7 @@
         <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -9198,7 +9198,7 @@
         <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E36">
         <v>26</v>
@@ -9221,7 +9221,7 @@
         <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -9244,7 +9244,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>12</v>
@@ -9267,7 +9267,7 @@
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <v>21</v>
@@ -9290,7 +9290,7 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>30</v>
@@ -9313,7 +9313,7 @@
         <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E41">
         <v>38</v>
@@ -9681,7 +9681,7 @@
         <v>26</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E57">
         <v>50</v>
@@ -9704,7 +9704,7 @@
         <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E58">
         <v>200</v>
@@ -9727,7 +9727,7 @@
         <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E59">
         <v>350</v>
@@ -9750,7 +9750,7 @@
         <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E60">
         <v>500</v>
@@ -9773,7 +9773,7 @@
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E61">
         <v>650</v>
@@ -9796,7 +9796,7 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E62">
         <v>6</v>
@@ -9819,7 +9819,7 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E63">
         <v>12</v>
@@ -9842,7 +9842,7 @@
         <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E64">
         <v>18</v>
@@ -9865,7 +9865,7 @@
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E65">
         <v>24</v>
@@ -9888,7 +9888,7 @@
         <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E66">
         <v>30</v>
@@ -9911,7 +9911,7 @@
         <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -9934,7 +9934,7 @@
         <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E68">
         <v>10</v>
@@ -9957,7 +9957,7 @@
         <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E69">
         <v>16</v>
@@ -9980,7 +9980,7 @@
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E70">
         <v>22</v>
@@ -10003,7 +10003,7 @@
         <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E71">
         <v>28</v>
@@ -10026,7 +10026,7 @@
         <v>28</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -10049,7 +10049,7 @@
         <v>28</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E73">
         <v>8</v>
@@ -10072,7 +10072,7 @@
         <v>28</v>
       </c>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E74">
         <v>14</v>
@@ -10095,7 +10095,7 @@
         <v>28</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E75">
         <v>20</v>
@@ -10118,7 +10118,7 @@
         <v>28</v>
       </c>
       <c r="D76" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E76">
         <v>26</v>
@@ -10141,7 +10141,7 @@
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E77">
         <v>3</v>
@@ -10164,7 +10164,7 @@
         <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E78">
         <v>12</v>
@@ -10187,7 +10187,7 @@
         <v>30</v>
       </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E79">
         <v>21</v>
@@ -10210,7 +10210,7 @@
         <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E80">
         <v>30</v>
@@ -10233,7 +10233,7 @@
         <v>30</v>
       </c>
       <c r="D81" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E81">
         <v>38</v>
@@ -10601,7 +10601,7 @@
         <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E97">
         <v>50</v>
@@ -10624,7 +10624,7 @@
         <v>26</v>
       </c>
       <c r="D98" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E98">
         <v>200</v>
@@ -10647,7 +10647,7 @@
         <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E99">
         <v>350</v>
@@ -10670,7 +10670,7 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E100">
         <v>500</v>
@@ -10693,7 +10693,7 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E101">
         <v>650</v>
@@ -10716,7 +10716,7 @@
         <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E102">
         <v>6</v>
@@ -10739,7 +10739,7 @@
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E103">
         <v>12</v>
@@ -10762,7 +10762,7 @@
         <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E104">
         <v>18</v>
@@ -10785,7 +10785,7 @@
         <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E105">
         <v>24</v>
@@ -10808,7 +10808,7 @@
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E106">
         <v>30</v>
@@ -10831,7 +10831,7 @@
         <v>29</v>
       </c>
       <c r="D107" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E107">
         <v>4</v>
@@ -10854,7 +10854,7 @@
         <v>29</v>
       </c>
       <c r="D108" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E108">
         <v>10</v>
@@ -10877,7 +10877,7 @@
         <v>29</v>
       </c>
       <c r="D109" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E109">
         <v>16</v>
@@ -10900,7 +10900,7 @@
         <v>29</v>
       </c>
       <c r="D110" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E110">
         <v>22</v>
@@ -10923,7 +10923,7 @@
         <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E111">
         <v>28</v>
@@ -10946,7 +10946,7 @@
         <v>28</v>
       </c>
       <c r="D112" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -10969,7 +10969,7 @@
         <v>28</v>
       </c>
       <c r="D113" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E113">
         <v>8</v>
@@ -10992,7 +10992,7 @@
         <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E114">
         <v>14</v>
@@ -11015,7 +11015,7 @@
         <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E115">
         <v>20</v>
@@ -11038,7 +11038,7 @@
         <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E116">
         <v>26</v>
@@ -11061,7 +11061,7 @@
         <v>30</v>
       </c>
       <c r="D117" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E117">
         <v>3</v>
@@ -11084,7 +11084,7 @@
         <v>30</v>
       </c>
       <c r="D118" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E118">
         <v>12</v>
@@ -11107,7 +11107,7 @@
         <v>30</v>
       </c>
       <c r="D119" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E119">
         <v>21</v>
@@ -11130,7 +11130,7 @@
         <v>30</v>
       </c>
       <c r="D120" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E120">
         <v>30</v>
@@ -11153,7 +11153,7 @@
         <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E121">
         <v>38</v>
@@ -11193,10 +11193,10 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -11228,10 +11228,10 @@
         <v>661</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -11254,10 +11254,10 @@
         <v>514</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -11280,10 +11280,10 @@
         <v>595</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -11306,10 +11306,10 @@
         <v>439</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -11332,10 +11332,10 @@
         <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -11358,10 +11358,10 @@
         <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -11384,10 +11384,10 @@
         <v>434</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -11410,10 +11410,10 @@
         <v>891</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -11436,10 +11436,10 @@
         <v>438</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -11462,10 +11462,10 @@
         <v>781</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -11488,10 +11488,10 @@
         <v>556</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -11514,10 +11514,10 @@
         <v>878</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -11540,10 +11540,10 @@
         <v>605</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -11569,7 +11569,7 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -11696,10 +11696,10 @@
         <v>836</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -11722,10 +11722,10 @@
         <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -11748,10 +11748,10 @@
         <v>255</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -11774,10 +11774,10 @@
         <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -11800,10 +11800,10 @@
         <v>762</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -11826,10 +11826,10 @@
         <v>905</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -11852,10 +11852,10 @@
         <v>660</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -11878,10 +11878,10 @@
         <v>211</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -11904,10 +11904,10 @@
         <v>379</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -11930,10 +11930,10 @@
         <v>736</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -11956,10 +11956,10 @@
         <v>937</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -11982,10 +11982,10 @@
         <v>288</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -12008,10 +12008,10 @@
         <v>869</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -12037,7 +12037,7 @@
         <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H33">
         <v>10</v>
@@ -12164,10 +12164,10 @@
         <v>656</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -12190,10 +12190,10 @@
         <v>216</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -12216,10 +12216,10 @@
         <v>209</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -12242,10 +12242,10 @@
         <v>331</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -12268,10 +12268,10 @@
         <v>122</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -12294,10 +12294,10 @@
         <v>962</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -12320,10 +12320,10 @@
         <v>793</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -12346,10 +12346,10 @@
         <v>932</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -12372,10 +12372,10 @@
         <v>293</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -12398,10 +12398,10 @@
         <v>296</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -12424,10 +12424,10 @@
         <v>230</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -12450,10 +12450,10 @@
         <v>553</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -12476,10 +12476,10 @@
         <v>905</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -12505,7 +12505,7 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H51">
         <v>10</v>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFFB8EC-308C-4155-8642-367ED0F6C242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A020D6C5-2C18-4E6E-B9D8-30754BD7CBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1011,7 +1011,7 @@
         <v>24</v>
       </c>
       <c r="L3">
-        <v>3000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
         <v>24</v>
       </c>
       <c r="L6">
-        <v>3000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
         <v>24</v>
       </c>
       <c r="L8">
-        <v>4000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1326,7 +1326,7 @@
         <v>24</v>
       </c>
       <c r="L12">
-        <v>4000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1466,7 +1466,7 @@
         <v>24</v>
       </c>
       <c r="L16">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1571,7 +1571,7 @@
         <v>24</v>
       </c>
       <c r="L19">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1641,7 +1641,7 @@
         <v>24</v>
       </c>
       <c r="L21">
-        <v>6000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1746,7 +1746,7 @@
         <v>24</v>
       </c>
       <c r="L24">
-        <v>6000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1816,7 +1816,7 @@
         <v>24</v>
       </c>
       <c r="L26">
-        <v>6000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1921,7 +1921,7 @@
         <v>24</v>
       </c>
       <c r="L29">
-        <v>7000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1956,7 +1956,7 @@
         <v>24</v>
       </c>
       <c r="L30">
-        <v>7000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -2096,7 +2096,7 @@
         <v>24</v>
       </c>
       <c r="L34">
-        <v>8000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2166,7 +2166,7 @@
         <v>24</v>
       </c>
       <c r="L36">
-        <v>8000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2306,7 +2306,7 @@
         <v>24</v>
       </c>
       <c r="L40">
-        <v>8000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2481,7 +2481,7 @@
         <v>24</v>
       </c>
       <c r="L45">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2551,7 +2551,7 @@
         <v>24</v>
       </c>
       <c r="L47">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2656,7 +2656,7 @@
         <v>24</v>
       </c>
       <c r="L50">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2726,7 +2726,7 @@
         <v>24</v>
       </c>
       <c r="L52">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2831,7 +2831,7 @@
         <v>24</v>
       </c>
       <c r="L55">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2866,7 +2866,7 @@
         <v>24</v>
       </c>
       <c r="L56">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3111,7 +3111,7 @@
         <v>24</v>
       </c>
       <c r="L63">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -3181,7 +3181,7 @@
         <v>24</v>
       </c>
       <c r="L65">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3286,7 +3286,7 @@
         <v>24</v>
       </c>
       <c r="L68">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3391,7 +3391,7 @@
         <v>24</v>
       </c>
       <c r="L71">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3461,7 +3461,7 @@
         <v>24</v>
       </c>
       <c r="L73">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3601,7 +3601,7 @@
         <v>24</v>
       </c>
       <c r="L77">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3671,7 +3671,7 @@
         <v>24</v>
       </c>
       <c r="L79">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3741,7 +3741,7 @@
         <v>24</v>
       </c>
       <c r="L81">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3811,7 +3811,7 @@
         <v>24</v>
       </c>
       <c r="L83">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -3951,7 +3951,7 @@
         <v>24</v>
       </c>
       <c r="L87">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -4021,7 +4021,7 @@
         <v>24</v>
       </c>
       <c r="L89">
-        <v>20000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -4126,7 +4126,7 @@
         <v>24</v>
       </c>
       <c r="L92">
-        <v>20000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -4266,7 +4266,7 @@
         <v>24</v>
       </c>
       <c r="L96">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4301,7 +4301,7 @@
         <v>24</v>
       </c>
       <c r="L97">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4476,7 +4476,7 @@
         <v>24</v>
       </c>
       <c r="L102">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4686,7 +4686,7 @@
         <v>24</v>
       </c>
       <c r="L108">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4756,7 +4756,7 @@
         <v>24</v>
       </c>
       <c r="L110">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4861,7 +4861,7 @@
         <v>24</v>
       </c>
       <c r="L113">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -4966,7 +4966,7 @@
         <v>24</v>
       </c>
       <c r="L116">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -5036,7 +5036,7 @@
         <v>24</v>
       </c>
       <c r="L118">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -5106,7 +5106,7 @@
         <v>24</v>
       </c>
       <c r="L120">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -5211,7 +5211,7 @@
         <v>24</v>
       </c>
       <c r="L123">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -5351,7 +5351,7 @@
         <v>24</v>
       </c>
       <c r="L127">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5386,7 +5386,7 @@
         <v>24</v>
       </c>
       <c r="L128">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -5491,7 +5491,7 @@
         <v>24</v>
       </c>
       <c r="L131">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -5596,7 +5596,7 @@
         <v>24</v>
       </c>
       <c r="L134">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -5631,7 +5631,7 @@
         <v>24</v>
       </c>
       <c r="L135">
-        <v>20000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -5771,7 +5771,7 @@
         <v>24</v>
       </c>
       <c r="L139">
-        <v>20000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -5911,7 +5911,7 @@
         <v>24</v>
       </c>
       <c r="L143">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -5981,7 +5981,7 @@
         <v>24</v>
       </c>
       <c r="L145">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -6121,7 +6121,7 @@
         <v>24</v>
       </c>
       <c r="L149">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -6296,7 +6296,7 @@
         <v>24</v>
       </c>
       <c r="L154">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -6366,7 +6366,7 @@
         <v>24</v>
       </c>
       <c r="L156">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -6436,7 +6436,7 @@
         <v>24</v>
       </c>
       <c r="L158">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -6611,7 +6611,7 @@
         <v>24</v>
       </c>
       <c r="L163">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -6716,7 +6716,7 @@
         <v>24</v>
       </c>
       <c r="L166">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -6786,7 +6786,7 @@
         <v>24</v>
       </c>
       <c r="L168">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -6821,7 +6821,7 @@
         <v>24</v>
       </c>
       <c r="L169">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -6856,7 +6856,7 @@
         <v>24</v>
       </c>
       <c r="L170">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -7031,7 +7031,7 @@
         <v>24</v>
       </c>
       <c r="L175">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -7066,7 +7066,7 @@
         <v>24</v>
       </c>
       <c r="L176">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -7136,7 +7136,7 @@
         <v>24</v>
       </c>
       <c r="L178">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -7311,7 +7311,7 @@
         <v>24</v>
       </c>
       <c r="L183">
-        <v>20000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -7416,7 +7416,7 @@
         <v>24</v>
       </c>
       <c r="L186">
-        <v>20000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -7534,7 +7534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F5A8A-CC2C-4E3D-998F-03E9F0CD83AA}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7638,7 +7640,7 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>90000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7778,7 +7780,7 @@
         <v>24</v>
       </c>
       <c r="F12">
-        <v>90000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7898,7 +7900,7 @@
         <v>24</v>
       </c>
       <c r="F18">
-        <v>90000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -8078,7 +8080,7 @@
         <v>24</v>
       </c>
       <c r="F27">
-        <v>90000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -8211,7 +8213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A90C97E-132D-4750-ABEC-292E39282DC0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11650,7 +11652,7 @@
         <v>24</v>
       </c>
       <c r="H18">
-        <v>100000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -11676,7 +11678,7 @@
         <v>24</v>
       </c>
       <c r="H19">
-        <v>50000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -12118,7 +12120,7 @@
         <v>24</v>
       </c>
       <c r="H36">
-        <v>100000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -12144,7 +12146,7 @@
         <v>24</v>
       </c>
       <c r="H37">
-        <v>50000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -12586,7 +12588,7 @@
         <v>24</v>
       </c>
       <c r="H54">
-        <v>100000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -12612,7 +12614,7 @@
         <v>24</v>
       </c>
       <c r="H55">
-        <v>50000</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A020D6C5-2C18-4E6E-B9D8-30754BD7CBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4B719B-0A95-459B-87E9-ABF53686B4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11177,7 +11177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB413D-F0B5-4DF8-BB61-465D9B0D6AD8}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11328,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E6">
         <v>182</v>
@@ -11354,7 +11354,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E7">
         <v>165</v>
@@ -11380,7 +11380,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E8">
         <v>434</v>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E9">
         <v>891</v>
@@ -11559,10 +11559,10 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>525</v>
@@ -11585,10 +11585,10 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>534</v>
@@ -11600,7 +11600,7 @@
         <v>23</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -11611,10 +11611,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>694</v>
@@ -11640,7 +11640,7 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>626</v>
@@ -11652,7 +11652,7 @@
         <v>24</v>
       </c>
       <c r="H18">
-        <v>10000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -11666,7 +11666,7 @@
         <v>50</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>868</v>
@@ -11678,7 +11678,7 @@
         <v>24</v>
       </c>
       <c r="H19">
-        <v>5000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -11796,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E24">
         <v>762</v>
@@ -11822,7 +11822,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E25">
         <v>905</v>
@@ -11848,7 +11848,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E26">
         <v>660</v>
@@ -11874,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E27">
         <v>211</v>
@@ -12027,10 +12027,10 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E33">
         <v>237</v>
@@ -12053,10 +12053,10 @@
         <v>15</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <v>725</v>
@@ -12068,7 +12068,7 @@
         <v>23</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -12079,10 +12079,10 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E35">
         <v>644</v>
@@ -12108,7 +12108,7 @@
         <v>30</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>477</v>
@@ -12120,7 +12120,7 @@
         <v>24</v>
       </c>
       <c r="H36">
-        <v>10000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -12134,7 +12134,7 @@
         <v>50</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>651</v>
@@ -12146,7 +12146,7 @@
         <v>24</v>
       </c>
       <c r="H37">
-        <v>5000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -12264,7 +12264,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E42">
         <v>122</v>
@@ -12290,7 +12290,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E43">
         <v>962</v>
@@ -12316,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E44">
         <v>793</v>
@@ -12342,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E45">
         <v>932</v>
@@ -12495,10 +12495,10 @@
         <v>14</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E51">
         <v>931</v>
@@ -12521,10 +12521,10 @@
         <v>15</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E52">
         <v>310</v>
@@ -12536,7 +12536,7 @@
         <v>23</v>
       </c>
       <c r="H52">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -12547,10 +12547,10 @@
         <v>16</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E53">
         <v>103</v>
@@ -12576,7 +12576,7 @@
         <v>30</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E54">
         <v>909</v>
@@ -12588,7 +12588,7 @@
         <v>24</v>
       </c>
       <c r="H54">
-        <v>10000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -12602,7 +12602,7 @@
         <v>50</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E55">
         <v>332</v>
@@ -12614,7 +12614,7 @@
         <v>24</v>
       </c>
       <c r="H55">
-        <v>5000</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4B719B-0A95-459B-87E9-ABF53686B4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BE8FD9-0D74-4F09-8D4C-A1D0693B9846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -8372,7 +8372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BAFCC6-D21D-4D9A-8592-5C5DA7F81395}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8651,7 +8651,7 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>120</v>
+        <v>960</v>
       </c>
       <c r="G12">
         <v>50</v>
@@ -8674,7 +8674,7 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>480</v>
+        <v>3840</v>
       </c>
       <c r="G13">
         <v>50</v>
@@ -8697,7 +8697,7 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>840</v>
+        <v>6720</v>
       </c>
       <c r="G14">
         <v>50</v>
@@ -8720,7 +8720,7 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>1300</v>
+        <v>10400</v>
       </c>
       <c r="G15">
         <v>50</v>
@@ -8743,7 +8743,7 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>1660</v>
+        <v>13280</v>
       </c>
       <c r="G16">
         <v>50</v>
@@ -9571,7 +9571,7 @@
         <v>30</v>
       </c>
       <c r="E52">
-        <v>120</v>
+        <v>960</v>
       </c>
       <c r="G52">
         <v>50</v>
@@ -9594,7 +9594,7 @@
         <v>30</v>
       </c>
       <c r="E53">
-        <v>480</v>
+        <v>3840</v>
       </c>
       <c r="G53">
         <v>50</v>
@@ -9617,7 +9617,7 @@
         <v>30</v>
       </c>
       <c r="E54">
-        <v>840</v>
+        <v>6720</v>
       </c>
       <c r="G54">
         <v>50</v>
@@ -9640,7 +9640,7 @@
         <v>30</v>
       </c>
       <c r="E55">
-        <v>1300</v>
+        <v>10400</v>
       </c>
       <c r="G55">
         <v>50</v>
@@ -9663,7 +9663,7 @@
         <v>30</v>
       </c>
       <c r="E56">
-        <v>1660</v>
+        <v>13280</v>
       </c>
       <c r="G56">
         <v>50</v>
@@ -10491,7 +10491,7 @@
         <v>30</v>
       </c>
       <c r="E92">
-        <v>120</v>
+        <v>960</v>
       </c>
       <c r="G92">
         <v>50</v>
@@ -10514,7 +10514,7 @@
         <v>30</v>
       </c>
       <c r="E93">
-        <v>480</v>
+        <v>3840</v>
       </c>
       <c r="G93">
         <v>50</v>
@@ -10537,7 +10537,7 @@
         <v>30</v>
       </c>
       <c r="E94">
-        <v>840</v>
+        <v>6720</v>
       </c>
       <c r="G94">
         <v>50</v>
@@ -10560,7 +10560,7 @@
         <v>30</v>
       </c>
       <c r="E95">
-        <v>1300</v>
+        <v>10400</v>
       </c>
       <c r="G95">
         <v>50</v>
@@ -10583,7 +10583,7 @@
         <v>30</v>
       </c>
       <c r="E96">
-        <v>1660</v>
+        <v>13280</v>
       </c>
       <c r="G96">
         <v>50</v>
@@ -11177,7 +11177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB413D-F0B5-4DF8-BB61-465D9B0D6AD8}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BE8FD9-0D74-4F09-8D4C-A1D0693B9846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3D4FC8-72C3-48E7-BE52-213FC7706A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -996,7 +996,7 @@
         <v>47</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -1206,7 +1206,7 @@
         <v>47</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -1241,7 +1241,7 @@
         <v>42</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>20</v>
@@ -1276,7 +1276,7 @@
         <v>43</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>15</v>
@@ -1311,7 +1311,7 @@
         <v>49</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H12">
         <v>15</v>
@@ -1451,7 +1451,7 @@
         <v>47</v>
       </c>
       <c r="F16">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -1550,13 +1550,13 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H19">
         <v>15</v>
@@ -1591,7 +1591,7 @@
         <v>41</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>20</v>
@@ -1661,7 +1661,7 @@
         <v>47</v>
       </c>
       <c r="F22">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H22">
         <v>15</v>
@@ -1696,7 +1696,7 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -1731,7 +1731,7 @@
         <v>49</v>
       </c>
       <c r="F24">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H24">
         <v>15</v>
@@ -1766,7 +1766,7 @@
         <v>29</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H25">
         <v>15</v>
@@ -1801,7 +1801,7 @@
         <v>30</v>
       </c>
       <c r="F26">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H26">
         <v>15</v>
@@ -1871,7 +1871,7 @@
         <v>47</v>
       </c>
       <c r="F28">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H28">
         <v>15</v>
@@ -1906,7 +1906,7 @@
         <v>48</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>15</v>
@@ -1976,7 +1976,7 @@
         <v>51</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <v>15</v>
@@ -2011,7 +2011,7 @@
         <v>33</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H32">
         <v>15</v>
@@ -2081,7 +2081,7 @@
         <v>47</v>
       </c>
       <c r="F34">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H34">
         <v>15</v>
@@ -2116,7 +2116,7 @@
         <v>49</v>
       </c>
       <c r="F35">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H35">
         <v>15</v>
@@ -2151,7 +2151,7 @@
         <v>30</v>
       </c>
       <c r="F36">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="H36">
         <v>15</v>
@@ -2221,7 +2221,7 @@
         <v>52</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H38">
         <v>20</v>
@@ -2256,7 +2256,7 @@
         <v>34</v>
       </c>
       <c r="F39">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>20</v>
@@ -2291,7 +2291,7 @@
         <v>43</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H40">
         <v>15</v>
@@ -2326,7 +2326,7 @@
         <v>47</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="H41">
         <v>15</v>
@@ -2361,7 +2361,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H42">
         <v>20</v>
@@ -2396,7 +2396,7 @@
         <v>43</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H43">
         <v>20</v>
@@ -2466,7 +2466,7 @@
         <v>49</v>
       </c>
       <c r="F45">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="H45">
         <v>15</v>
@@ -2536,7 +2536,7 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H47">
         <v>15</v>
@@ -2571,7 +2571,7 @@
         <v>48</v>
       </c>
       <c r="F48">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H48">
         <v>15</v>
@@ -2711,7 +2711,7 @@
         <v>30</v>
       </c>
       <c r="F52">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="H52">
         <v>15</v>
@@ -2746,7 +2746,7 @@
         <v>49</v>
       </c>
       <c r="F53">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>20</v>
@@ -2781,7 +2781,7 @@
         <v>48</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54">
         <v>20</v>
@@ -2956,7 +2956,7 @@
         <v>30</v>
       </c>
       <c r="F59">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H59">
         <v>20</v>
@@ -3166,7 +3166,7 @@
         <v>30</v>
       </c>
       <c r="F65">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="H65">
         <v>15</v>
@@ -3201,7 +3201,7 @@
         <v>52</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H66">
         <v>15</v>
@@ -3446,7 +3446,7 @@
         <v>49</v>
       </c>
       <c r="F73">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H73">
         <v>20</v>
@@ -3621,7 +3621,7 @@
         <v>30</v>
       </c>
       <c r="F78">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H78">
         <v>20</v>
@@ -3656,7 +3656,7 @@
         <v>49</v>
       </c>
       <c r="F79">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="H79">
         <v>15</v>
@@ -3796,7 +3796,7 @@
         <v>30</v>
       </c>
       <c r="F83">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H83">
         <v>15</v>
@@ -3831,7 +3831,7 @@
         <v>49</v>
       </c>
       <c r="F84">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="H84">
         <v>15</v>
@@ -3901,7 +3901,7 @@
         <v>52</v>
       </c>
       <c r="F86">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H86">
         <v>15</v>
@@ -4111,7 +4111,7 @@
         <v>30</v>
       </c>
       <c r="F92">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H92">
         <v>15</v>
@@ -4146,7 +4146,7 @@
         <v>49</v>
       </c>
       <c r="F93">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="H93">
         <v>20</v>
@@ -4356,7 +4356,7 @@
         <v>30</v>
       </c>
       <c r="F99">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H99">
         <v>15</v>
@@ -4426,7 +4426,7 @@
         <v>48</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101">
         <v>20</v>
@@ -4601,7 +4601,7 @@
         <v>30</v>
       </c>
       <c r="F106">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H106">
         <v>15</v>
@@ -4636,7 +4636,7 @@
         <v>49</v>
       </c>
       <c r="F107">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H107">
         <v>15</v>
@@ -4846,7 +4846,7 @@
         <v>52</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H113">
         <v>15</v>
@@ -4881,7 +4881,7 @@
         <v>49</v>
       </c>
       <c r="F114">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H114">
         <v>20</v>
@@ -4986,7 +4986,7 @@
         <v>30</v>
       </c>
       <c r="F117">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="H117">
         <v>20</v>
@@ -5056,7 +5056,7 @@
         <v>51</v>
       </c>
       <c r="F119">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H119">
         <v>15</v>
@@ -5126,7 +5126,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H121">
         <v>15</v>
@@ -5266,7 +5266,7 @@
         <v>49</v>
       </c>
       <c r="F125">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="H125">
         <v>15</v>
@@ -5301,7 +5301,7 @@
         <v>52</v>
       </c>
       <c r="F126">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H126">
         <v>15</v>
@@ -5336,7 +5336,7 @@
         <v>48</v>
       </c>
       <c r="F127">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H127">
         <v>15</v>
@@ -5546,7 +5546,7 @@
         <v>30</v>
       </c>
       <c r="F133">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H133">
         <v>15</v>
@@ -5581,7 +5581,7 @@
         <v>48</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H134">
         <v>20</v>
@@ -5721,7 +5721,7 @@
         <v>30</v>
       </c>
       <c r="F138">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="H138">
         <v>20</v>
@@ -5756,7 +5756,7 @@
         <v>49</v>
       </c>
       <c r="F139">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="H139">
         <v>15</v>
@@ -5966,7 +5966,7 @@
         <v>30</v>
       </c>
       <c r="F145">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="H145">
         <v>20</v>
@@ -6421,7 +6421,7 @@
         <v>30</v>
       </c>
       <c r="F158">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="H158">
         <v>15</v>
@@ -6771,7 +6771,7 @@
         <v>49</v>
       </c>
       <c r="F168">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="H168">
         <v>15</v>
@@ -7086,7 +7086,7 @@
         <v>30</v>
       </c>
       <c r="F177">
-        <v>600</v>
+        <v>2400</v>
       </c>
       <c r="H177">
         <v>15</v>
@@ -7226,7 +7226,7 @@
         <v>48</v>
       </c>
       <c r="F181">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H181">
         <v>20</v>
@@ -7366,7 +7366,7 @@
         <v>34</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H185">
         <v>20</v>
@@ -7436,7 +7436,7 @@
         <v>30</v>
       </c>
       <c r="F187">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="H187">
         <v>15</v>
@@ -7471,7 +7471,7 @@
         <v>49</v>
       </c>
       <c r="F188">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="H188">
         <v>15</v>
@@ -7506,7 +7506,7 @@
         <v>48</v>
       </c>
       <c r="F189">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H189">
         <v>20</v>
@@ -8372,7 +8372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BAFCC6-D21D-4D9A-8592-5C5DA7F81395}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3D4FC8-72C3-48E7-BE52-213FC7706A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5CB285-E8BA-4AE7-9B35-0B9F1CFA802A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11177,7 +11177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB413D-F0B5-4DF8-BB61-465D9B0D6AD8}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11224,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1250</v>
+        <v>1750</v>
       </c>
       <c r="E2">
         <v>661</v>
@@ -11233,7 +11233,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -11259,7 +11259,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -11285,7 +11285,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="E5">
         <v>439</v>
@@ -11311,7 +11311,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -11328,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="E6">
         <v>182</v>
@@ -11337,7 +11337,7 @@
         <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -11354,7 +11354,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="E7">
         <v>165</v>
@@ -11363,7 +11363,7 @@
         <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -11380,7 +11380,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="E8">
         <v>434</v>
@@ -11389,7 +11389,7 @@
         <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -11406,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="E9">
         <v>891</v>
@@ -11415,7 +11415,7 @@
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -11441,7 +11441,7 @@
         <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -11458,7 +11458,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="E11">
         <v>781</v>
@@ -11467,7 +11467,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -11484,7 +11484,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E12">
         <v>556</v>
@@ -11493,7 +11493,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -11510,7 +11510,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E13">
         <v>878</v>
@@ -11519,7 +11519,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -11536,7 +11536,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="E14">
         <v>605</v>
@@ -11545,7 +11545,7 @@
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -11692,7 +11692,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1250</v>
+        <v>1750</v>
       </c>
       <c r="E20">
         <v>836</v>
@@ -11701,7 +11701,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -11727,7 +11727,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -11753,7 +11753,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -11770,7 +11770,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="E23">
         <v>133</v>
@@ -11779,7 +11779,7 @@
         <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -11796,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="E24">
         <v>762</v>
@@ -11805,7 +11805,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -11822,7 +11822,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="E25">
         <v>905</v>
@@ -11831,7 +11831,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -11848,7 +11848,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="E26">
         <v>660</v>
@@ -11857,7 +11857,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -11874,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="E27">
         <v>211</v>
@@ -11883,7 +11883,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -11909,7 +11909,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="E29">
         <v>736</v>
@@ -11935,7 +11935,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -11952,7 +11952,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E30">
         <v>937</v>
@@ -11961,7 +11961,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -11978,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E31">
         <v>288</v>
@@ -11987,7 +11987,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -12004,7 +12004,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="E32">
         <v>869</v>
@@ -12013,7 +12013,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -12160,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>1250</v>
+        <v>1750</v>
       </c>
       <c r="E38">
         <v>656</v>
@@ -12169,7 +12169,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -12195,7 +12195,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -12221,7 +12221,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -12238,7 +12238,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="E41">
         <v>331</v>
@@ -12247,7 +12247,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -12264,7 +12264,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="E42">
         <v>122</v>
@@ -12273,7 +12273,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -12290,7 +12290,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="E43">
         <v>962</v>
@@ -12299,7 +12299,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -12316,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="E44">
         <v>793</v>
@@ -12325,7 +12325,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -12342,7 +12342,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="E45">
         <v>932</v>
@@ -12351,7 +12351,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -12377,7 +12377,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -12394,7 +12394,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="E47">
         <v>296</v>
@@ -12403,7 +12403,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -12420,7 +12420,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E48">
         <v>230</v>
@@ -12429,7 +12429,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -12446,7 +12446,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="E49">
         <v>553</v>
@@ -12455,7 +12455,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -12472,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="E50">
         <v>905</v>
@@ -12481,7 +12481,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H50">
         <v>1</v>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5CB285-E8BA-4AE7-9B35-0B9F1CFA802A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD48A63-1FCC-4C71-A555-D08D5E40209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -7534,7 +7534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F5A8A-CC2C-4E3D-998F-03E9F0CD83AA}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7600,7 +7600,7 @@
         <v>23</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7614,13 +7614,13 @@
         <v>557</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7634,13 +7634,13 @@
         <v>613</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F5">
-        <v>9000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7740,7 +7740,7 @@
         <v>23</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -7777,10 +7777,10 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12">
-        <v>9000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7897,10 +7897,10 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>9000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -7940,7 +7940,7 @@
         <v>23</v>
       </c>
       <c r="F20">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -8077,10 +8077,10 @@
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27">
-        <v>9000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -8120,7 +8120,7 @@
         <v>23</v>
       </c>
       <c r="F29">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -11177,7 +11177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDB413D-F0B5-4DF8-BB61-465D9B0D6AD8}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/SevenDays.xlsx
+++ b/Excel/SevenDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD48A63-1FCC-4C71-A555-D08D5E40209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80568E5-959A-49CE-9610-56EDF699081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="1" xr2:uid="{F2625843-E199-4453-A8A7-C829235EB7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SevenDaysTypeTable" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4613864-BEC7-402F-A963-311BD20B91B7}">
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1171,7 +1171,7 @@
         <v>46</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -1416,7 +1416,7 @@
         <v>46</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -1451,7 +1451,7 @@
         <v>47</v>
       </c>
       <c r="F16">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -1626,7 +1626,7 @@
         <v>46</v>
       </c>
       <c r="F21">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H21">
         <v>15</v>
@@ -1661,7 +1661,7 @@
         <v>47</v>
       </c>
       <c r="F22">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <v>15</v>
@@ -1696,7 +1696,7 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <v>20</v>
@@ -1871,7 +1871,7 @@
         <v>47</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H28">
         <v>15</v>
@@ -2081,7 +2081,7 @@
         <v>47</v>
       </c>
       <c r="F34">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H34">
         <v>15</v>
@@ -2326,7 +2326,7 @@
         <v>47</v>
       </c>
       <c r="F41">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H41">
         <v>15</v>
@@ -2536,7 +2536,7 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H47">
         <v>15</v>
@@ -7534,7 +7534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F5A8A-CC2C-4E3D-998F-03E9F0CD83AA}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
